--- a/documents/#02.基本設計/画面遷移図.xlsx
+++ b/documents/#02.基本設計/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatta\Desktop\Git\workgroup\CLibPrj\documents\#02.基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA57AA09-45A7-4052-9286-AB76521C3DA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1DD741-495E-4F60-B032-D6C78A70953A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1910" yWindow="410" windowWidth="18270" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="600" windowWidth="18270" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原紙" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -106,10 +106,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>〇〇図</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>〇〇設計</t>
     <rPh sb="2" eb="4">
       <t>セッケイ</t>
@@ -117,12 +113,20 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>システムID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○○図</t>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>基本設計</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッケイ</t>
+    <rPh sb="0" eb="4">
+      <t>キホンセッケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -134,10 +138,6 @@
     <rPh sb="2" eb="5">
       <t>センイズ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CLibPrj</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -210,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -435,17 +435,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -650,17 +639,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -692,6 +670,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -699,9 +688,36 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -712,9 +728,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -722,22 +736,7 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="double">
         <color auto="1"/>
       </bottom>
@@ -747,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -756,25 +755,76 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -783,7 +833,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -798,7 +848,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -807,101 +857,56 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -934,10 +939,10 @@
     <xdr:ext cx="1240198" cy="325217"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="正方形/長方形 57">
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AC6DED-8DDD-438C-90BA-908EB8D34DAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA49800C-AC5E-42B1-91A2-02E29A2F3B50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -945,7 +950,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="392545" y="2028719"/>
+          <a:off x="393700" y="1969837"/>
           <a:ext cx="1240198" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -999,10 +1004,10 @@
     <xdr:ext cx="1389529" cy="558102"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="正方形/長方形 58">
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1899BB86-A616-45A3-87F2-0AD4D0085441}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D5316B-6484-480B-A4ED-7B9A0C0CA8E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,7 +1015,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3369623" y="1913503"/>
+          <a:off x="3379437" y="1860394"/>
           <a:ext cx="1389529" cy="558102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1080,146 +1085,6 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>56261</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>99825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1389529" cy="325217"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="正方形/長方形 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD2C9EE-F361-491A-8F11-778BC39A8124}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9869897" y="17845189"/>
-          <a:ext cx="1389529" cy="325217"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>社員管理画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>42240</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>127535</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1389529" cy="325217"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="正方形/長方形 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C33F0B-C273-4491-8236-BCC98E335190}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9855876" y="18854262"/>
-          <a:ext cx="1389529" cy="325217"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>書物管理画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>122697</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -1228,10 +1093,10 @@
     <xdr:ext cx="960519" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="吹き出し: 四角形 61">
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3863826E-5FF9-49C2-A374-210180C53B98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA38A565-B1D4-49F7-B25E-5A2FAFBBE221}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1239,7 +1104,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1692879" y="2364475"/>
+          <a:off x="1697497" y="2294048"/>
           <a:ext cx="960519" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1289,10 +1154,10 @@
     <xdr:ext cx="2512226" cy="564514"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="吹き出し: 四角形 62">
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54BE140F-5337-4FA8-8B56-CE1EFFCA3856}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{085307F4-8C2D-490E-9567-761DC606367D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1300,7 +1165,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3668289" y="1177636"/>
+          <a:off x="3678680" y="1141845"/>
           <a:ext cx="2512226" cy="564514"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1391,10 +1256,10 @@
     <xdr:ext cx="2033505" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="吹き出し: 四角形 63">
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E598BD-10B4-4BAE-8A17-02049F78ADF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF09B5F-0160-465E-A5F2-27A26A7952FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1402,7 +1267,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6565909" y="2863273"/>
+          <a:off x="6584959" y="2781300"/>
           <a:ext cx="2033505" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1465,10 +1330,10 @@
     <xdr:ext cx="2456698" cy="1272784"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="吹き出し: 四角形 64">
+        <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C43FA0-18C9-4B9D-B8C1-361FCDE36A0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92331B89-C9B6-4B89-B2CF-DC63FFA5BB75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1341,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11560321" y="4860032"/>
+          <a:off x="11593803" y="4720332"/>
           <a:ext cx="2456698" cy="1272784"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1572,137 +1437,6 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>186910</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>150259</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1383712" cy="564514"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="吹き出し: 四角形 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F30651-E23D-4BD8-A05A-7D46CD666961}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11767001" y="17699350"/>
-          <a:ext cx="1383712" cy="564514"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -78285"/>
-            <a:gd name="adj2" fmla="val 17413"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>･社員情報管理機能</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>･グループ作成機能</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>19657</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>92074</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1383712" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="吹き出し: 四角形 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6DC29BA-1742-4D44-9BF1-C469FCF97F5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11796021" y="18818801"/>
-          <a:ext cx="1383712" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -81684"/>
-            <a:gd name="adj2" fmla="val 24202"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>･書生情報管理機能</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>144973</xdr:colOff>
       <xdr:row>32</xdr:row>
@@ -1711,10 +1445,10 @@
     <xdr:ext cx="1806905" cy="564514"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="吹き出し: 四角形 67">
+        <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BABBA9C-AC38-479D-A97E-1AB2DF6D2D73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696771EE-996A-4BBC-8A2C-362D7E71DFE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1722,7 +1456,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8977246" y="6109039"/>
+          <a:off x="9003223" y="5928930"/>
           <a:ext cx="1806905" cy="564514"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1786,22 +1520,22 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="コネクタ: カギ線 68">
+        <xdr:cNvPr id="9" name="コネクタ: カギ線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35F862F-E589-499F-BA13-794B1B3E012C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639FB08D-09AD-476C-B807-89175CF898C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="58" idx="3"/>
-          <a:endCxn id="59" idx="1"/>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1624496" y="2160815"/>
-          <a:ext cx="1745127" cy="1226"/>
+          <a:off x="1629114" y="2096160"/>
+          <a:ext cx="1750323" cy="1226"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1842,23 +1576,23 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="コネクタ: カギ線 69">
+        <xdr:cNvPr id="10" name="コネクタ: カギ線 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F479D8-2A20-4071-AC13-75BBA5F1BD4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B63735-82C3-4EC5-B966-DF618C52D126}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="59" idx="2"/>
-          <a:endCxn id="71" idx="1"/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="11" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4895328" y="1640665"/>
-          <a:ext cx="1139814" cy="2801694"/>
+          <a:off x="4928232" y="1548879"/>
+          <a:ext cx="1105177" cy="2809776"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1894,10 +1628,10 @@
     <xdr:ext cx="1642062" cy="325217"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="正方形/長方形 70">
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B28019A-4ABB-426B-8150-3B29F8DBA1C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1170A79A-C863-48BB-B5D3-63978805E5A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1905,7 +1639,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6866082" y="3448810"/>
+          <a:off x="6885709" y="3349519"/>
           <a:ext cx="1642062" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1964,23 +1698,23 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="コネクタ: カギ線 71">
+        <xdr:cNvPr id="12" name="コネクタ: カギ線 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9695FA73-A7BD-475D-BC9F-6C2EAF14EB7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BA8C0B-765B-41DC-A242-C3E30197E897}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="59" idx="2"/>
-          <a:endCxn id="73" idx="1"/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="13" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4927587" y="1608405"/>
-          <a:ext cx="3245840" cy="4972239"/>
+          <a:off x="4995705" y="1481405"/>
+          <a:ext cx="3147703" cy="4987249"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2016,10 +1750,10 @@
     <xdr:ext cx="1642062" cy="325217"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="正方形/長方形 72">
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66ACCFAC-E1ED-4125-907E-675F93E6A77F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C05C5A-75B0-4B4A-8DE8-A7A3643B1489}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,7 +1761,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9036627" y="5554836"/>
+          <a:off x="9063182" y="5392045"/>
           <a:ext cx="1642062" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2081,10 +1815,10 @@
     <xdr:ext cx="1642062" cy="558102"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="正方形/長方形 73">
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C362A0D-1E57-47C0-A4E7-F4901EAC120E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E25D51E-925E-46C4-B7FB-C4362D25CAB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +1826,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9035947" y="4329350"/>
+          <a:off x="9062502" y="4201195"/>
           <a:ext cx="1642062" cy="558102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2160,10 +1894,10 @@
     <xdr:ext cx="1642062" cy="325217"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="正方形/長方形 74">
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C780291-021A-4DB5-BC84-A0F267C65934}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37A7CB0-D359-4A6D-8629-E64B2882D6A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2171,7 +1905,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9036627" y="6951838"/>
+          <a:off x="9063182" y="6748638"/>
           <a:ext cx="1642062" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2230,10 +1964,10 @@
     <xdr:ext cx="1642062" cy="325217"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="正方形/長方形 75">
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B6379E-F83A-4265-A83F-3464C6910351}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0ADA18A-9141-4EB5-A54F-1400FB2C9593}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +1975,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9036627" y="7840838"/>
+          <a:off x="9063182" y="7608774"/>
           <a:ext cx="1642062" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2305,10 +2039,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="77" name="グループ化 76">
+        <xdr:cNvPr id="17" name="グループ化 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E3A674-16F7-4D07-9075-4498225E952A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43DA4F32-C583-4DEF-8F2A-8DAF37886EA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,10 +2058,10 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="78" name="四角形: メモ 77">
+          <xdr:cNvPr id="18" name="四角形: メモ 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A79647-97D1-4DA8-96C1-EDB7015FEF2D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBAF7742-7370-4A97-A384-6FE70ECE642D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2382,10 +2116,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="79" name="正方形/長方形 78">
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75CE5F14-D3E0-4464-8B10-018B30ADFE9A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E16DED-53BD-432C-AB5A-ABC5691727CC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2435,10 +2169,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="正方形/長方形 79">
+          <xdr:cNvPr id="20" name="正方形/長方形 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F01C65-7DD0-4028-875A-6F13CB981F9B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302CAF8B-BCBC-47B8-B92A-217CA5179B3D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2511,23 +2245,23 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="コネクタ: カギ線 80">
+        <xdr:cNvPr id="21" name="コネクタ: カギ線 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC8ACC7-4F99-465B-928A-3189AF0274B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABE6BFC-7BD2-4863-8440-861962D647A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="59" idx="2"/>
-          <a:endCxn id="75" idx="1"/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="15" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4229086" y="2306906"/>
-          <a:ext cx="4642842" cy="4972239"/>
+          <a:off x="4317409" y="2159701"/>
+          <a:ext cx="4504296" cy="4987249"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2568,23 +2302,23 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="コネクタ: カギ線 81">
+        <xdr:cNvPr id="22" name="コネクタ: カギ線 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC4CFA5-AF63-4A57-B140-94F793F81B72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678B4B25-B627-46A2-8831-F704C353662F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="59" idx="2"/>
-          <a:endCxn id="76" idx="1"/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="16" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3784586" y="2751406"/>
-          <a:ext cx="5531842" cy="4972239"/>
+          <a:off x="3884454" y="2592656"/>
+          <a:ext cx="5370205" cy="4987249"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2610,6 +2344,695 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>48607</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>79282</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>105674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="コネクタ: カギ線 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E06906-3D80-47E8-87E9-3C3877C771BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4773007" y="2127899"/>
+          <a:ext cx="5936175" cy="2346575"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3862"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>48607</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>79962</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>37081</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="コネクタ: カギ線 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D5FCD13-AD5D-43D0-92DD-86B87A02E83F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4773007" y="2127899"/>
+          <a:ext cx="5936855" cy="3420982"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3862"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>48607</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>79962</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>60174</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="コネクタ: カギ線 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{743DF676-CAFC-4EE0-87BF-5FE7B2DCAA7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4773007" y="2127899"/>
+          <a:ext cx="5936855" cy="4777575"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3862"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>48607</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>79962</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>164083</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="コネクタ: カギ線 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899B51E3-A1F0-4F53-B59D-4BC8508EC06C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4773007" y="2127899"/>
+          <a:ext cx="5936855" cy="5643484"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3862"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>48607</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>68417</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>90055</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="コネクタ: カギ線 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A045972B-7889-4821-8388-297267F3968E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4773007" y="2127899"/>
+          <a:ext cx="3759960" cy="1378456"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6098"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>32477</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>56391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>7402</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>105674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="コネクタ: カギ線 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B16125B7-95F6-4A26-A269-A3A08DA7B699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7980423" y="3392395"/>
+          <a:ext cx="811283" cy="1352875"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>78230</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>75045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>193684</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5BDDEFB-202F-4E1A-9FA6-CCB895930C74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5590030" y="1776845"/>
+          <a:ext cx="509154" cy="6453910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>グローバルナビゲーション</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>56261</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>99825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1389529" cy="325217"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53731385-3267-4288-BB0A-FE892F91E6F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9111361" y="17327375"/>
+          <a:ext cx="1389529" cy="325217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>社員管理画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>42240</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>127535</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1389529" cy="325217"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4375ECE0-8C21-4394-9A07-EB10563A497A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9097340" y="18307585"/>
+          <a:ext cx="1389529" cy="325217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>書物管理画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>186910</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>150259</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1383712" cy="564514"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="吹き出し: 四角形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD8B20A7-E80A-4084-A3AB-D685B45800C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11013660" y="17187309"/>
+          <a:ext cx="1383712" cy="564514"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -78285"/>
+            <a:gd name="adj2" fmla="val 17413"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>･社員情報管理機能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>･グループ作成機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>19657</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>92074</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1383712" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="吹き出し: 四角形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2003B7-14A0-4E55-BF52-DBF14B734361}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11043257" y="18272124"/>
+          <a:ext cx="1383712" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -81684"/>
+            <a:gd name="adj2" fmla="val 24202"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>･書生情報管理機能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -2625,23 +3048,23 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="コネクタ: カギ線 82">
+        <xdr:cNvPr id="34" name="コネクタ: カギ線 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055EE12D-F01C-483E-B70A-FD11FD64995C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC07639-9393-4FB9-8FD6-F7987C857835}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="92" idx="2"/>
-          <a:endCxn id="60" idx="1"/>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="30" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3869182" y="12007082"/>
-          <a:ext cx="6195921" cy="5805509"/>
+          <a:off x="3588050" y="11960900"/>
+          <a:ext cx="6011194" cy="5035428"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2682,375 +3105,23 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="コネクタ: カギ線 83">
+        <xdr:cNvPr id="35" name="コネクタ: カギ線 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{838D5471-FE53-4FC4-83C0-E48BC2A7CDD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118C07D3-0F18-48D9-8739-79B966CF898F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="92" idx="2"/>
-          <a:endCxn id="61" idx="1"/>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="31" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3357635" y="12518630"/>
-          <a:ext cx="7204994" cy="5791488"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>48607</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>45099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>79282</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>105674</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="コネクタ: カギ線 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A956F20-CDEA-4972-8967-676C27087544}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="74" idx="3"/>
-          <a:endCxn id="59" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4759152" y="2192554"/>
-          <a:ext cx="5918857" cy="2415847"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -3862"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>48607</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>45099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>79962</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>37081</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="86" name="コネクタ: カギ線 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1523E929-A8E3-41B2-B4FE-63030E947521}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="73" idx="3"/>
-          <a:endCxn id="59" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4759152" y="2192554"/>
-          <a:ext cx="5919537" cy="3524891"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -3862"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>48607</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>45099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>79962</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>60174</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="コネクタ: カギ線 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B77CBF69-8157-42F9-BD42-B56C77E38AE9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="75" idx="3"/>
-          <a:endCxn id="59" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4759152" y="2192554"/>
-          <a:ext cx="5919537" cy="4921893"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -3862"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>48607</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>45099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>79962</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>164083</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="コネクタ: カギ線 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D407A9DE-1C2F-462B-BE01-7062865240F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="76" idx="3"/>
-          <a:endCxn id="59" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4759152" y="2192554"/>
-          <a:ext cx="5919537" cy="5810893"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -3862"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>48607</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>45099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>68417</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>90055</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="89" name="コネクタ: カギ線 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D104B9EA-306E-415E-B88F-66EFB78EF486}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="71" idx="3"/>
-          <a:endCxn id="59" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4759152" y="2192554"/>
-          <a:ext cx="3748992" cy="1418865"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -6098"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>32477</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>56391</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>7402</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>105674</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="コネクタ: カギ線 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3757B2DE-3051-4125-9268-02F4CEE4BBF0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="71" idx="2"/>
-          <a:endCxn id="74" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7944343" y="3516797"/>
-          <a:ext cx="834374" cy="1348834"/>
+          <a:off x="3090935" y="12458016"/>
+          <a:ext cx="6991403" cy="5021407"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3086,10 +3157,10 @@
     <xdr:ext cx="1240198" cy="325217"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="正方形/長方形 90">
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5819A000-0BE4-4DAE-9438-8D9F843EE858}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B682CC77-F707-4D5B-A243-B0F90E7EFA4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3097,7 +3168,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="392545" y="11368991"/>
+          <a:off x="393700" y="11041677"/>
           <a:ext cx="1240198" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3151,10 +3222,10 @@
     <xdr:ext cx="1389529" cy="558102"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="正方形/長方形 91">
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25E1C218-EFA6-4555-9DB8-5E07683E8309}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D208DEB7-4860-4825-9A26-7CC565F1011E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3162,7 +3233,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3369623" y="11253775"/>
+          <a:off x="3379437" y="10932234"/>
           <a:ext cx="1389529" cy="558102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3240,10 +3311,10 @@
     <xdr:ext cx="960519" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="吹き出し: 四角形 92">
+        <xdr:cNvPr id="38" name="吹き出し: 四角形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5248627-6A4F-48C8-9ABF-8019F5BF66A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA81B64-FF3F-4F64-8CE6-B9F8CE3E2EB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3251,7 +3322,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1796788" y="11836942"/>
+          <a:off x="1801983" y="11498083"/>
           <a:ext cx="960519" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -3301,10 +3372,10 @@
     <xdr:ext cx="2512226" cy="564514"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="吹き出し: 四角形 93">
+        <xdr:cNvPr id="39" name="吹き出し: 四角形 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5AD114-CA85-4544-A97F-E72AC20AFCA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DFB044-95B0-4F3B-AD59-A8E94F112D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3312,7 +3383,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3668289" y="10517907"/>
+          <a:off x="3678680" y="10213684"/>
           <a:ext cx="2512226" cy="564514"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -3403,10 +3474,10 @@
     <xdr:ext cx="2033505" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="吹き出し: 四角形 94">
+        <xdr:cNvPr id="40" name="吹き出し: 四角形 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18FEE91-97B2-4FBD-AA77-EAD8CE84A3CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DDD6444-62E2-4320-AE24-2B28CA7D83D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3414,7 +3485,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7270183" y="12191999"/>
+          <a:off x="6504142" y="11841594"/>
           <a:ext cx="2033505" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -3477,10 +3548,10 @@
     <xdr:ext cx="1806905" cy="564514"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="吹き出し: 四角形 95">
+        <xdr:cNvPr id="41" name="吹き出し: 四角形 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624B7454-3C61-4667-B45B-622845D43A49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{932F1E5C-0A67-4CED-9C9C-27608AD8F9C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3488,7 +3559,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9173519" y="15449310"/>
+          <a:off x="8412674" y="15000769"/>
           <a:ext cx="1806905" cy="564514"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -3552,22 +3623,22 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="コネクタ: カギ線 96">
+        <xdr:cNvPr id="42" name="コネクタ: カギ線 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA32ABF8-2CC3-4C15-B781-62588A2515D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08FD284F-EA29-46B1-B62C-C8A7AEAA6426}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="91" idx="3"/>
-          <a:endCxn id="92" idx="1"/>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="37" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1632743" y="11531600"/>
-          <a:ext cx="1736880" cy="1226"/>
+          <a:off x="1637361" y="11198514"/>
+          <a:ext cx="1742076" cy="1226"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3608,23 +3679,23 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="コネクタ: カギ線 97">
+        <xdr:cNvPr id="43" name="コネクタ: カギ線 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19F9B9B-6FDF-436C-8703-8FA603E2929A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E683BC-7620-434D-8D95-6DAA0BDE97E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="92" idx="2"/>
-          <a:endCxn id="99" idx="1"/>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="44" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5270555" y="10605709"/>
-          <a:ext cx="1139814" cy="3552149"/>
+          <a:off x="4910913" y="10638037"/>
+          <a:ext cx="1105178" cy="2775140"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3660,10 +3731,10 @@
     <xdr:ext cx="1642062" cy="325217"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="正方形/長方形 98">
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604075E1-5C48-405A-B5BF-869681DB3BEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B85A22-91DC-4FDE-93F0-F39FD318443C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3671,7 +3742,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7616537" y="12789082"/>
+          <a:off x="6851073" y="12421359"/>
           <a:ext cx="1642062" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3730,23 +3801,23 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="コネクタ: カギ線 99">
+        <xdr:cNvPr id="45" name="コネクタ: カギ線 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B33C40-400F-494A-A990-3394E1F06B9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B01F56D-2A1B-40DF-93F0-FC64D4243F49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="92" idx="2"/>
-          <a:endCxn id="101" idx="1"/>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="46" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5210451" y="10665813"/>
-          <a:ext cx="3245840" cy="5537967"/>
+          <a:off x="4885446" y="10663504"/>
+          <a:ext cx="3147704" cy="4766731"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3782,10 +3853,10 @@
     <xdr:ext cx="1642062" cy="325217"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="正方形/長方形 100">
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE3FD81-2A1D-4880-970C-CEB263EFFE91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC19DE15-CC87-49F7-8954-556139D11F50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3793,7 +3864,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9602355" y="14895108"/>
+          <a:off x="8842664" y="14463885"/>
           <a:ext cx="1642062" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3847,10 +3918,10 @@
     <xdr:ext cx="1642062" cy="558102"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="正方形/長方形 101">
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4502FBA8-31DC-46EC-8F7B-016CEEDD4FAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FDF59B2-C21B-44B9-BE73-A7B233489E43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3858,7 +3929,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9601675" y="13663272"/>
+          <a:off x="8841984" y="13266686"/>
           <a:ext cx="1642062" cy="558102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3926,10 +3997,10 @@
     <xdr:ext cx="1642062" cy="325217"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="正方形/長方形 102">
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A45FC6-D068-4455-A763-3DBB8511FF49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD082DA-208E-44E4-A12F-C47AE3A6B2CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3937,7 +4008,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9602355" y="16292109"/>
+          <a:off x="8842664" y="15820477"/>
           <a:ext cx="1642062" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3996,10 +4067,10 @@
     <xdr:ext cx="1642062" cy="325217"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="正方形/長方形 103">
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{920E4881-DD39-4D5D-A9D5-EFD74CF9E983}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D54C898-40BA-4425-B259-F565C5E7D3CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4007,7 +4078,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9602355" y="17181110"/>
+          <a:off x="8842664" y="16680615"/>
           <a:ext cx="1642062" cy="325217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4071,23 +4142,23 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="コネクタ: カギ線 104">
+        <xdr:cNvPr id="50" name="コネクタ: カギ線 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{091AB470-71E4-482A-904D-C6C72A63CA3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4561076-5886-4D74-95F0-0ED460FD351F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="92" idx="2"/>
-          <a:endCxn id="103" idx="1"/>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="48" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4511951" y="11364313"/>
-          <a:ext cx="4642841" cy="5537967"/>
+          <a:off x="4207151" y="11341799"/>
+          <a:ext cx="4504295" cy="4766731"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4128,23 +4199,23 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="106" name="コネクタ: カギ線 105">
+        <xdr:cNvPr id="51" name="コネクタ: カギ線 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8C6DC23-A022-4488-80E2-F7B275A56E5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17995BD6-A137-4E82-B997-D4DE7FC5CA1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="92" idx="2"/>
-          <a:endCxn id="104" idx="1"/>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="49" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4067450" y="11808814"/>
-          <a:ext cx="5531842" cy="5537967"/>
+          <a:off x="3774195" y="11774755"/>
+          <a:ext cx="5370206" cy="4766731"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4185,23 +4256,23 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="107" name="コネクタ: カギ線 106">
+        <xdr:cNvPr id="52" name="コネクタ: カギ線 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{462ADEED-F381-4037-8223-98FFDC2ACBC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5763248E-BE74-4C2E-B08C-6F6618AD6D56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="102" idx="3"/>
-          <a:endCxn id="92" idx="3"/>
+          <a:stCxn id="47" idx="3"/>
+          <a:endCxn id="37" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4759152" y="11532826"/>
-          <a:ext cx="6484585" cy="2409497"/>
+          <a:off x="4773007" y="11199740"/>
+          <a:ext cx="5716235" cy="2340224"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4244,23 +4315,23 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="108" name="コネクタ: カギ線 107">
+        <xdr:cNvPr id="53" name="コネクタ: カギ線 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5BF6FC-57E1-44A2-A885-FEBF75636DC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11FE9E27-EA2F-4D8F-A287-5C5ECFE49E43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="101" idx="3"/>
-          <a:endCxn id="92" idx="3"/>
+          <a:stCxn id="46" idx="3"/>
+          <a:endCxn id="37" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4759152" y="11532826"/>
-          <a:ext cx="6485265" cy="3524891"/>
+          <a:off x="4773007" y="11199740"/>
+          <a:ext cx="5716915" cy="3420982"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4303,23 +4374,23 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="109" name="コネクタ: カギ線 108">
+        <xdr:cNvPr id="54" name="コネクタ: カギ線 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15281AEA-C2BF-4D40-B93F-F74E65DD6770}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6DEB897-5530-48B6-9584-A370D12978B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="103" idx="3"/>
-          <a:endCxn id="92" idx="3"/>
+          <a:stCxn id="48" idx="3"/>
+          <a:endCxn id="37" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4759152" y="11532826"/>
-          <a:ext cx="6485265" cy="4921892"/>
+          <a:off x="4773007" y="11199740"/>
+          <a:ext cx="5716915" cy="4777573"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4362,23 +4433,23 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="コネクタ: カギ線 109">
+        <xdr:cNvPr id="55" name="コネクタ: カギ線 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1AC9F54-FC84-4F77-8F0E-ED0E698EDA1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B31D419-3E0E-47C4-B5BE-35D4BCB5434D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="104" idx="3"/>
-          <a:endCxn id="92" idx="3"/>
+          <a:stCxn id="49" idx="3"/>
+          <a:endCxn id="37" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4759152" y="11532826"/>
-          <a:ext cx="6485265" cy="5810893"/>
+          <a:off x="4773007" y="11199740"/>
+          <a:ext cx="5716915" cy="5643484"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4421,23 +4492,23 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="111" name="コネクタ: カギ線 110">
+        <xdr:cNvPr id="56" name="コネクタ: カギ線 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D4FC714-E0A8-4E75-A433-D1A87F3B4F5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E6B839-7175-4F51-9656-220F996A42CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="99" idx="3"/>
-          <a:endCxn id="92" idx="3"/>
+          <a:stCxn id="44" idx="3"/>
+          <a:endCxn id="37" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4759152" y="11532826"/>
-          <a:ext cx="4499447" cy="1418865"/>
+          <a:off x="4773007" y="11199740"/>
+          <a:ext cx="3725324" cy="1378456"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4480,23 +4551,23 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="112" name="コネクタ: カギ線 111">
+        <xdr:cNvPr id="57" name="コネクタ: カギ線 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01F28D9F-6076-48D7-B2BD-018AD904B93D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EBBA2C9-B362-4C10-A0A9-CDE3F02671AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="99" idx="2"/>
-          <a:endCxn id="102" idx="1"/>
+          <a:stCxn id="44" idx="2"/>
+          <a:endCxn id="47" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8605609" y="12946257"/>
-          <a:ext cx="828024" cy="1164107"/>
+          <a:off x="7855731" y="12553712"/>
+          <a:ext cx="804933" cy="1167571"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4537,23 +4608,23 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="113" name="コネクタ: カギ線 112">
+        <xdr:cNvPr id="58" name="コネクタ: カギ線 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78307DA-CD09-42E1-87C4-21FDBB302F54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01CB1D53-77CC-41E4-AE38-A1B5999A65E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="60" idx="3"/>
-          <a:endCxn id="92" idx="3"/>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="37" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4759152" y="11532826"/>
-          <a:ext cx="6500274" cy="6474972"/>
+          <a:off x="4773007" y="11199740"/>
+          <a:ext cx="5731924" cy="6284472"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4596,23 +4667,23 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="114" name="コネクタ: カギ線 113">
+        <xdr:cNvPr id="59" name="コネクタ: カギ線 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EB36415-0408-41B1-A8C7-6D68D2B54F89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A3E357-7BD5-44D3-AAE4-BDC3D2681F63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="61" idx="3"/>
-          <a:endCxn id="92" idx="3"/>
+          <a:stCxn id="31" idx="3"/>
+          <a:endCxn id="37" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4759152" y="11532826"/>
-          <a:ext cx="6486253" cy="7484045"/>
+          <a:off x="4773007" y="11199740"/>
+          <a:ext cx="5717903" cy="7264681"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4643,22 +4714,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>78230</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>75045</xdr:rowOff>
+      <xdr:colOff>89775</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>193684</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>8956</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="正方形/長方形 114">
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D630C24-9086-4146-9E98-FF628D314770}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6F5D02-915B-4C15-BC66-0599D126AA5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4666,8 +4737,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5573866" y="1829954"/>
-          <a:ext cx="508000" cy="6650183"/>
+          <a:off x="5601575" y="10871777"/>
+          <a:ext cx="509731" cy="7758546"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4708,72 +4779,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>89775</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>8956</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="正方形/長方形 115">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75865CCC-AABB-4209-98F3-29CD0EF7E405}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5585411" y="11193318"/>
-          <a:ext cx="508000" cy="7995228"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>グローバルナビゲーション</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>182140</xdr:colOff>
       <xdr:row>66</xdr:row>
@@ -4787,10 +4792,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="117" name="グループ化 116">
+        <xdr:cNvPr id="61" name="グループ化 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA75CEF9-6F41-4058-9256-91383EA468BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB5A534-C9EF-4D84-BA2B-D1F95F49C38E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4806,10 +4811,10 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="118" name="四角形: メモ 117">
+          <xdr:cNvPr id="62" name="四角形: メモ 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68714D54-645D-4242-A859-9AA92192AD00}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{244A39B0-5B0A-4184-83F8-65A38D69A746}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4864,10 +4869,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="119" name="正方形/長方形 118">
+          <xdr:cNvPr id="63" name="正方形/長方形 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2556B9-8448-4FE0-AF8B-69363CE2B621}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF20111-7FF0-4D2D-B57A-1374141BC8C0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4917,10 +4922,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="120" name="正方形/長方形 119">
+          <xdr:cNvPr id="64" name="正方形/長方形 63">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E65C0C-A8CF-43BE-A73A-53318881A59C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68D3C716-0DFF-42A0-9AE2-9E19F8B9C588}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4988,10 +4993,10 @@
     <xdr:ext cx="2456698" cy="1272784"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="吹き出し: 四角形 120">
+        <xdr:cNvPr id="65" name="吹き出し: 四角形 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBEA3E31-096E-4E4A-8AC8-B4BF155F5501}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC4C7DD-1BF1-496C-B8E4-F21669517EAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4999,7 +5004,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11577503" y="14102772"/>
+          <a:off x="10823585" y="13694640"/>
           <a:ext cx="2456698" cy="1272784"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -5365,7 +5370,7 @@
   <dimension ref="A1:BU101"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4:AM5"/>
+      <selection activeCell="AT4" sqref="AT4:BF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
@@ -5448,81 +5453,81 @@
     </row>
     <row r="2" spans="1:73" ht="15" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="47" t="s">
-        <v>9</v>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="54" t="s">
+        <v>10</v>
       </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50" t="s">
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="AO2" s="50"/>
       <c r="AP2" s="50"/>
       <c r="AQ2" s="50"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="45"/>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="45"/>
-      <c r="BC2" s="45"/>
-      <c r="BD2" s="45"/>
-      <c r="BE2" s="45"/>
-      <c r="BF2" s="55"/>
-      <c r="BG2" s="58" t="s">
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
-      <c r="BP2" s="14"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="60"/>
+      <c r="BK2" s="60"/>
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="60"/>
+      <c r="BO2" s="60"/>
+      <c r="BP2" s="60"/>
       <c r="BQ2" s="8" t="s">
         <v>6</v>
       </c>
@@ -5533,239 +5538,241 @@
     </row>
     <row r="3" spans="1:73" ht="15" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="46"/>
-      <c r="AU3" s="46"/>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="46"/>
-      <c r="BC3" s="46"/>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="46"/>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="15" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="11"/>
-      <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
-      <c r="BP3" s="11"/>
-      <c r="BQ3" s="16"/>
-      <c r="BR3" s="17"/>
-      <c r="BS3" s="17"/>
-      <c r="BT3" s="18"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="57"/>
+      <c r="BK3" s="57"/>
+      <c r="BL3" s="57"/>
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57"/>
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="33"/>
+      <c r="BR3" s="34"/>
+      <c r="BS3" s="34"/>
+      <c r="BT3" s="35"/>
       <c r="BU3" s="6"/>
     </row>
     <row r="4" spans="1:73" ht="15" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="28" t="s">
-        <v>10</v>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="22" t="s">
+        <v>9</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="31" t="s">
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="28"/>
-      <c r="AY4" s="28"/>
-      <c r="AZ4" s="28"/>
-      <c r="BA4" s="28"/>
-      <c r="BB4" s="28"/>
-      <c r="BC4" s="28"/>
-      <c r="BD4" s="28"/>
-      <c r="BE4" s="28"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="15" t="s">
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="22"/>
+      <c r="AW4" s="22"/>
+      <c r="AX4" s="22"/>
+      <c r="AY4" s="22"/>
+      <c r="AZ4" s="22"/>
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="23"/>
+      <c r="BG4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="BH4" s="15"/>
-      <c r="BI4" s="15"/>
-      <c r="BJ4" s="11"/>
-      <c r="BK4" s="11"/>
-      <c r="BL4" s="11"/>
-      <c r="BM4" s="11"/>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="11"/>
-      <c r="BP4" s="11"/>
-      <c r="BQ4" s="16"/>
-      <c r="BR4" s="17"/>
-      <c r="BS4" s="17"/>
-      <c r="BT4" s="18"/>
+      <c r="BH4" s="45"/>
+      <c r="BI4" s="45"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="57"/>
+      <c r="BL4" s="57"/>
+      <c r="BM4" s="57"/>
+      <c r="BN4" s="57"/>
+      <c r="BO4" s="57"/>
+      <c r="BP4" s="57"/>
+      <c r="BQ4" s="33"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="35"/>
       <c r="BU4" s="6"/>
     </row>
     <row r="5" spans="1:73" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="40"/>
-      <c r="AT5" s="29"/>
-      <c r="AU5" s="29"/>
-      <c r="AV5" s="29"/>
-      <c r="AW5" s="29"/>
-      <c r="AX5" s="29"/>
-      <c r="AY5" s="29"/>
-      <c r="AZ5" s="29"/>
-      <c r="BA5" s="29"/>
-      <c r="BB5" s="29"/>
-      <c r="BC5" s="29"/>
-      <c r="BD5" s="29"/>
-      <c r="BE5" s="29"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="12" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="24"/>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="25"/>
+      <c r="AW5" s="25"/>
+      <c r="AX5" s="25"/>
+      <c r="AY5" s="25"/>
+      <c r="AZ5" s="25"/>
+      <c r="BA5" s="25"/>
+      <c r="BB5" s="25"/>
+      <c r="BC5" s="25"/>
+      <c r="BD5" s="25"/>
+      <c r="BE5" s="25"/>
+      <c r="BF5" s="26"/>
+      <c r="BG5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="BH5" s="12"/>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="13"/>
-      <c r="BK5" s="13"/>
-      <c r="BL5" s="13"/>
-      <c r="BM5" s="13"/>
-      <c r="BN5" s="13"/>
-      <c r="BO5" s="13"/>
-      <c r="BP5" s="13"/>
-      <c r="BQ5" s="19"/>
-      <c r="BR5" s="20"/>
-      <c r="BS5" s="20"/>
-      <c r="BT5" s="21"/>
+      <c r="BH5" s="58"/>
+      <c r="BI5" s="58"/>
+      <c r="BJ5" s="59"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59"/>
+      <c r="BM5" s="59"/>
+      <c r="BN5" s="59"/>
+      <c r="BO5" s="59"/>
+      <c r="BP5" s="59"/>
+      <c r="BQ5" s="36"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="38"/>
       <c r="BU5" s="6"/>
     </row>
     <row r="6" spans="1:73" ht="7" customHeight="1" thickTop="1" thickBot="1">
@@ -6433,29 +6440,30 @@
       <c r="BT101" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="BQ3:BT5"/>
+  <mergeCells count="20">
     <mergeCell ref="B4:F5"/>
     <mergeCell ref="G4:V5"/>
-    <mergeCell ref="W4:AM5"/>
-    <mergeCell ref="AN4:AR5"/>
-    <mergeCell ref="AS4:BF5"/>
     <mergeCell ref="BG4:BI4"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="G2:V3"/>
-    <mergeCell ref="W2:AM3"/>
-    <mergeCell ref="AN2:AR3"/>
-    <mergeCell ref="AS2:BF3"/>
+    <mergeCell ref="AO2:AS3"/>
     <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="W2:AA3"/>
+    <mergeCell ref="AB2:AN3"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="AT2:BF3"/>
+    <mergeCell ref="AO4:AS5"/>
+    <mergeCell ref="AT4:BF5"/>
+    <mergeCell ref="W4:AN5"/>
+    <mergeCell ref="BQ3:BT5"/>
     <mergeCell ref="BJ4:BP4"/>
-    <mergeCell ref="BG5:BI5"/>
     <mergeCell ref="BJ5:BP5"/>
     <mergeCell ref="BJ2:BP2"/>
-    <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="BJ3:BP3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.62992125984251968" footer="0.31496062992125984"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;14P.&amp;P/&amp;N　　　</oddHeader>
@@ -6464,14 +6472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC77EBAF-1A4B-4C74-82E0-895A3564BC41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6ACC12-9A6A-4F5C-A395-FEED61931BE0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BU101"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="BO68" sqref="BO68"/>
+      <selection activeCell="B55" sqref="B55:BT100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
@@ -6554,83 +6562,81 @@
     </row>
     <row r="2" spans="1:73" ht="15" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45" t="s">
-        <v>13</v>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="54" t="s">
+        <v>10</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50" t="s">
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="AO2" s="50"/>
       <c r="AP2" s="50"/>
       <c r="AQ2" s="50"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="45"/>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="45"/>
-      <c r="BC2" s="45"/>
-      <c r="BD2" s="45"/>
-      <c r="BE2" s="45"/>
-      <c r="BF2" s="55"/>
-      <c r="BG2" s="58" t="s">
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
-      <c r="BP2" s="14"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="60"/>
+      <c r="BK2" s="60"/>
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="60"/>
+      <c r="BO2" s="60"/>
+      <c r="BP2" s="60"/>
       <c r="BQ2" s="8" t="s">
         <v>6</v>
       </c>
@@ -6641,239 +6647,241 @@
     </row>
     <row r="3" spans="1:73" ht="15" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="46"/>
-      <c r="AU3" s="46"/>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="46"/>
-      <c r="BC3" s="46"/>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="46"/>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="15" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="11"/>
-      <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
-      <c r="BP3" s="11"/>
-      <c r="BQ3" s="16"/>
-      <c r="BR3" s="17"/>
-      <c r="BS3" s="17"/>
-      <c r="BT3" s="18"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="57"/>
+      <c r="BK3" s="57"/>
+      <c r="BL3" s="57"/>
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57"/>
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="33"/>
+      <c r="BR3" s="34"/>
+      <c r="BS3" s="34"/>
+      <c r="BT3" s="35"/>
       <c r="BU3" s="6"/>
     </row>
     <row r="4" spans="1:73" ht="15" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="28" t="s">
-        <v>11</v>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="22" t="s">
+        <v>12</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="31" t="s">
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="28"/>
-      <c r="AY4" s="28"/>
-      <c r="AZ4" s="28"/>
-      <c r="BA4" s="28"/>
-      <c r="BB4" s="28"/>
-      <c r="BC4" s="28"/>
-      <c r="BD4" s="28"/>
-      <c r="BE4" s="28"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="15" t="s">
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="22"/>
+      <c r="AW4" s="22"/>
+      <c r="AX4" s="22"/>
+      <c r="AY4" s="22"/>
+      <c r="AZ4" s="22"/>
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="23"/>
+      <c r="BG4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="BH4" s="15"/>
-      <c r="BI4" s="15"/>
-      <c r="BJ4" s="11"/>
-      <c r="BK4" s="11"/>
-      <c r="BL4" s="11"/>
-      <c r="BM4" s="11"/>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="11"/>
-      <c r="BP4" s="11"/>
-      <c r="BQ4" s="16"/>
-      <c r="BR4" s="17"/>
-      <c r="BS4" s="17"/>
-      <c r="BT4" s="18"/>
+      <c r="BH4" s="45"/>
+      <c r="BI4" s="45"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="57"/>
+      <c r="BL4" s="57"/>
+      <c r="BM4" s="57"/>
+      <c r="BN4" s="57"/>
+      <c r="BO4" s="57"/>
+      <c r="BP4" s="57"/>
+      <c r="BQ4" s="33"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="35"/>
       <c r="BU4" s="6"/>
     </row>
     <row r="5" spans="1:73" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="40"/>
-      <c r="AT5" s="29"/>
-      <c r="AU5" s="29"/>
-      <c r="AV5" s="29"/>
-      <c r="AW5" s="29"/>
-      <c r="AX5" s="29"/>
-      <c r="AY5" s="29"/>
-      <c r="AZ5" s="29"/>
-      <c r="BA5" s="29"/>
-      <c r="BB5" s="29"/>
-      <c r="BC5" s="29"/>
-      <c r="BD5" s="29"/>
-      <c r="BE5" s="29"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="12" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="24"/>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="25"/>
+      <c r="AW5" s="25"/>
+      <c r="AX5" s="25"/>
+      <c r="AY5" s="25"/>
+      <c r="AZ5" s="25"/>
+      <c r="BA5" s="25"/>
+      <c r="BB5" s="25"/>
+      <c r="BC5" s="25"/>
+      <c r="BD5" s="25"/>
+      <c r="BE5" s="25"/>
+      <c r="BF5" s="26"/>
+      <c r="BG5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="BH5" s="12"/>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="13"/>
-      <c r="BK5" s="13"/>
-      <c r="BL5" s="13"/>
-      <c r="BM5" s="13"/>
-      <c r="BN5" s="13"/>
-      <c r="BO5" s="13"/>
-      <c r="BP5" s="13"/>
-      <c r="BQ5" s="19"/>
-      <c r="BR5" s="20"/>
-      <c r="BS5" s="20"/>
-      <c r="BT5" s="21"/>
+      <c r="BH5" s="58"/>
+      <c r="BI5" s="58"/>
+      <c r="BJ5" s="59"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59"/>
+      <c r="BM5" s="59"/>
+      <c r="BN5" s="59"/>
+      <c r="BO5" s="59"/>
+      <c r="BP5" s="59"/>
+      <c r="BQ5" s="36"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="38"/>
       <c r="BU5" s="6"/>
     </row>
     <row r="6" spans="1:73" ht="7" customHeight="1" thickTop="1" thickBot="1">
@@ -6957,10 +6965,10 @@
     </row>
     <row r="8" spans="1:73">
       <c r="A8" s="4"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="62" t="s">
         <v>15</v>
       </c>
       <c r="BU8" s="6"/>
@@ -7295,10 +7303,10 @@
     </row>
     <row r="56" spans="1:73">
       <c r="A56" s="4"/>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H56" s="60" t="s">
+      <c r="H56" s="62" t="s">
         <v>16</v>
       </c>
       <c r="BU56" s="6"/>
@@ -7553,29 +7561,30 @@
       <c r="BT101" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="BG4:BI4"/>
     <mergeCell ref="BJ4:BP4"/>
     <mergeCell ref="BG5:BI5"/>
     <mergeCell ref="BJ5:BP5"/>
+    <mergeCell ref="BG2:BI2"/>
     <mergeCell ref="BJ2:BP2"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="BJ3:BP3"/>
     <mergeCell ref="BQ3:BT5"/>
     <mergeCell ref="B4:F5"/>
     <mergeCell ref="G4:V5"/>
-    <mergeCell ref="W4:AM5"/>
-    <mergeCell ref="AN4:AR5"/>
-    <mergeCell ref="AS4:BF5"/>
-    <mergeCell ref="BG4:BI4"/>
+    <mergeCell ref="W4:AN5"/>
+    <mergeCell ref="AO4:AS5"/>
+    <mergeCell ref="AT4:BF5"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="G2:V3"/>
-    <mergeCell ref="W2:AM3"/>
-    <mergeCell ref="AN2:AR3"/>
-    <mergeCell ref="AS2:BF3"/>
-    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="W2:AA3"/>
+    <mergeCell ref="AB2:AN3"/>
+    <mergeCell ref="AO2:AS3"/>
+    <mergeCell ref="AT2:BF3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.62992125984251968" footer="0.31496062992125984"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;14P.&amp;P/&amp;N　　　</oddHeader>

--- a/documents/#02.基本設計/画面遷移図.xlsx
+++ b/documents/#02.基本設計/画面遷移図.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatta\Desktop\Git\workgroup\CLibPrj\documents\#02.基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1DD741-495E-4F60-B032-D6C78A70953A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C25DEB-958F-44F6-A697-C0A158B20C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="600" windowWidth="18270" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10" yWindow="0" windowWidth="18270" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="原紙" sheetId="6" r:id="rId1"/>
-    <sheet name="画面遷移図" sheetId="7" r:id="rId2"/>
+    <sheet name="原紙" sheetId="8" r:id="rId1"/>
+    <sheet name="画面遷移図" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">画面遷移図!$A$1:$BU$101</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">原紙!$A$1:$BU$101</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面遷移図!$A$1:$BU$99</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">原紙!$A$1:$BU$99</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">画面遷移図!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">原紙!$1:$5</definedName>
   </definedNames>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -79,10 +79,6 @@
     <rPh sb="2" eb="3">
       <t>シャ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ページNo</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -210,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -435,17 +431,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -454,15 +439,6 @@
       <bottom style="double">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -481,19 +457,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -742,11 +705,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -754,68 +815,120 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -824,92 +937,44 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -933,7 +998,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>77537</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240198" cy="325217"/>
@@ -942,7 +1007,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA49800C-AC5E-42B1-91A2-02E29A2F3B50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B84FE3F-31A6-4D11-8F53-6E7B67ADA49A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -998,7 +1063,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>32987</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>158594</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1389529" cy="558102"/>
@@ -1007,7 +1072,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D5316B-6484-480B-A4ED-7B9A0C0CA8E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA281BE-C693-4CE7-8C3E-FDDE60211F07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1087,7 +1152,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>122697</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>20748</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="960519" cy="328423"/>
@@ -1096,7 +1161,7 @@
         <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA38A565-B1D4-49F7-B25E-5A2FAFBBE221}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2916265F-86AA-4FD7-A821-36D4B191F858}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1148,7 +1213,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>135380</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>11545</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2512226" cy="564514"/>
@@ -1157,7 +1222,7 @@
         <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{085307F4-8C2D-490E-9567-761DC606367D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0FD35B7-1C01-4F79-8FAE-F923A33C426A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,7 +1315,7 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>88909</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2033505" cy="328423"/>
@@ -1259,7 +1324,7 @@
         <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF09B5F-0160-465E-A5F2-27A26A7952FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D5546C-AC73-4C69-BB60-675D22EE51A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1324,7 +1389,7 @@
     <xdr:from>
       <xdr:col>58</xdr:col>
       <xdr:colOff>176503</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>161032</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2456698" cy="1272784"/>
@@ -1333,7 +1398,7 @@
         <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92331B89-C9B6-4B89-B2CF-DC63FFA5BB75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5035114F-7308-47EC-93A3-06F49A27272D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,7 +1504,7 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>144973</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>36130</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1806905" cy="564514"/>
@@ -1448,7 +1513,7 @@
         <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696771EE-996A-4BBC-8A2C-362D7E71DFE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35135E0-30E1-4583-8293-413D65D2F7D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,13 +1574,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>54314</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>13360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>32987</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>14586</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1523,7 +1588,7 @@
         <xdr:cNvPr id="9" name="コネクタ: カギ線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639FB08D-09AD-476C-B807-89175CF898C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{533CCF44-218E-49AF-AADF-6D5E1FFDD353}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,13 +1630,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>138933</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>127878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>192809</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>90055</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1579,7 +1644,7 @@
         <xdr:cNvPr id="10" name="コネクタ: カギ線 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B63735-82C3-4EC5-B966-DF618C52D126}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974D34A0-766B-41B2-B7B3-DD3BEE89CF41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1622,7 +1687,7 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>192809</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>123719</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1642062" cy="325217"/>
@@ -1631,7 +1696,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1170A79A-C863-48BB-B5D3-63978805E5A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92DDBF9C-D10F-4306-B210-2D0C8C96D8C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1687,13 +1752,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>138932</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>127878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>8081</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>37081</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1701,7 +1766,7 @@
         <xdr:cNvPr id="12" name="コネクタ: カギ線 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BA8C0B-765B-41DC-A242-C3E30197E897}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E88F369-3DF9-4D63-8FCE-1CB830276BBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1744,7 +1809,7 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>8082</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>70745</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1642062" cy="325217"/>
@@ -1753,7 +1818,7 @@
         <xdr:cNvPr id="13" name="正方形/長方形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C05C5A-75B0-4B4A-8DE8-A7A3643B1489}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1833CD7D-F286-444E-A46E-E65AD440BC7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1809,7 +1874,7 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>7402</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>22895</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1642062" cy="558102"/>
@@ -1818,7 +1883,7 @@
         <xdr:cNvPr id="14" name="正方形/長方形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E25D51E-925E-46C4-B7FB-C4362D25CAB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C0D0B8-46E1-438A-B6B2-528B1A9E1404}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,7 +1953,7 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>8082</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>93838</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1642062" cy="325217"/>
@@ -1897,7 +1962,7 @@
         <xdr:cNvPr id="15" name="正方形/長方形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37A7CB0-D359-4A6D-8629-E64B2882D6A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76FEE82-F760-4DAA-A493-34F2735A28B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1958,7 +2023,7 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>8082</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>1474</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1642062" cy="325217"/>
@@ -1967,7 +2032,7 @@
         <xdr:cNvPr id="16" name="正方形/長方形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0ADA18A-9141-4EB5-A54F-1400FB2C9593}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F639D5C-DFCA-4611-84E1-B682065474B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,13 +2093,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>78231</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>144321</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>66686</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>23093</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2042,7 +2107,7 @@
         <xdr:cNvPr id="17" name="グループ化 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43DA4F32-C583-4DEF-8F2A-8DAF37886EA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{356BC425-4C22-4B16-9C41-C29B5620D27A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2050,7 +2115,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="470776" y="3273139"/>
+          <a:off x="470776" y="3284685"/>
           <a:ext cx="3325092" cy="1252681"/>
           <a:chOff x="219363" y="3278910"/>
           <a:chExt cx="3325092" cy="1196788"/>
@@ -2061,7 +2126,7 @@
           <xdr:cNvPr id="18" name="四角形: メモ 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBAF7742-7370-4A97-A384-6FE70ECE642D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C88698-D040-4760-A453-24E103366DF7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2119,7 +2184,7 @@
           <xdr:cNvPr id="19" name="正方形/長方形 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E16DED-53BD-432C-AB5A-ABC5691727CC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796AC93E-DF82-4511-B687-2DA31981C3A8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2172,7 +2237,7 @@
           <xdr:cNvPr id="20" name="正方形/長方形 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302CAF8B-BCBC-47B8-B92A-217CA5179B3D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7421DA91-099E-48C5-9CB3-1016B6DEA63D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2234,13 +2299,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>138932</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>127878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>8081</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>60174</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2248,7 +2313,7 @@
         <xdr:cNvPr id="21" name="コネクタ: カギ線 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABE6BFC-7BD2-4863-8440-861962D647A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F452BCB-BCB2-47C2-A773-73573C1DB651}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,13 +2356,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>138932</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>127878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>8081</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>164083</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2305,7 +2370,7 @@
         <xdr:cNvPr id="22" name="コネクタ: カギ線 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678B4B25-B627-46A2-8831-F704C353662F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED9B9920-3BD1-42F0-87B7-3419ACD500B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2348,13 +2413,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>48607</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>45099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>79282</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>105674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2362,7 +2427,7 @@
         <xdr:cNvPr id="23" name="コネクタ: カギ線 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E06906-3D80-47E8-87E9-3C3877C771BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FE5646-16C5-4FF6-838C-F6A4C145151A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,13 +2472,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>48607</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>45099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>79962</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>37081</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2421,7 +2486,7 @@
         <xdr:cNvPr id="24" name="コネクタ: カギ線 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D5FCD13-AD5D-43D0-92DD-86B87A02E83F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517B58E4-67BC-4B93-864E-747E9FE7319C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,13 +2531,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>48607</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>45099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>79962</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>60174</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2480,7 +2545,7 @@
         <xdr:cNvPr id="25" name="コネクタ: カギ線 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{743DF676-CAFC-4EE0-87BF-5FE7B2DCAA7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F567F79-A2B4-48E6-AC22-3DB92253556A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,13 +2590,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>48607</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>45099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>79962</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>164083</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2539,7 +2604,7 @@
         <xdr:cNvPr id="26" name="コネクタ: カギ線 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899B51E3-A1F0-4F53-B59D-4BC8508EC06C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF2183B-3E12-496D-B147-065950912B47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,13 +2649,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>48607</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>45099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>68417</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>90055</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2598,7 +2663,7 @@
         <xdr:cNvPr id="27" name="コネクタ: カギ線 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A045972B-7889-4821-8388-297267F3968E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7AE761-EA4F-43A8-982A-46FF2F4566EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2643,13 +2708,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>32477</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>56391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>7402</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>105674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2657,7 +2722,7 @@
         <xdr:cNvPr id="28" name="コネクタ: カギ線 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B16125B7-95F6-4A26-A269-A3A08DA7B699}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6A4780-753F-458B-9F0B-F19BBF1FAF63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2700,13 +2765,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>78230</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>75045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>193684</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>51955</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2714,7 +2779,7 @@
         <xdr:cNvPr id="29" name="正方形/長方形 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5BDDEFB-202F-4E1A-9FA6-CCB895930C74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64303A1E-4936-4BAF-A45B-37B9CCD88777}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2766,7 +2831,7 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>56261</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>99825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1389529" cy="325217"/>
@@ -2775,7 +2840,7 @@
         <xdr:cNvPr id="30" name="正方形/長方形 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53731385-3267-4288-BB0A-FE892F91E6F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E12AE48E-44AB-4FE8-AB3B-CBB747AAB198}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2836,7 +2901,7 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>42240</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>127535</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1389529" cy="325217"/>
@@ -2845,7 +2910,7 @@
         <xdr:cNvPr id="31" name="正方形/長方形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4375ECE0-8C21-4394-9A07-EB10563A497A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C94674B-0505-47E7-84E5-0E11C5BEC1F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2906,7 +2971,7 @@
     <xdr:from>
       <xdr:col>55</xdr:col>
       <xdr:colOff>186910</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>150259</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1383712" cy="564514"/>
@@ -2915,7 +2980,7 @@
         <xdr:cNvPr id="32" name="吹き出し: 四角形 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD8B20A7-E80A-4084-A3AB-D685B45800C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554B2E36-4B73-469B-BA10-F058A5783617}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2975,7 +3040,7 @@
     <xdr:from>
       <xdr:col>56</xdr:col>
       <xdr:colOff>19657</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>92074</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1383712" cy="328423"/>
@@ -2984,7 +3049,7 @@
         <xdr:cNvPr id="33" name="吹き出し: 四角形 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2003B7-14A0-4E55-BF52-DBF14B734361}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D4F00F8-F397-4A11-A097-6CA2F7D52C75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3037,13 +3102,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>138933</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>150967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>56261</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>66161</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3051,7 +3116,7 @@
         <xdr:cNvPr id="34" name="コネクタ: カギ線 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC07639-9393-4FB9-8FD6-F7987C857835}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14DADD9D-A1E2-4C68-8FC5-5806D2C1DD11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3094,13 +3159,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>138933</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>150968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>42240</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>93871</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3108,7 +3173,7 @@
         <xdr:cNvPr id="35" name="コネクタ: カギ線 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118C07D3-0F18-48D9-8739-79B966CF898F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CA014A-F221-4B1B-88A7-2073A06DE7AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3151,7 +3216,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>100627</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240198" cy="325217"/>
@@ -3160,7 +3225,7 @@
         <xdr:cNvPr id="36" name="正方形/長方形 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B682CC77-F707-4D5B-A243-B0F90E7EFA4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B35274-2856-4154-A013-616A7C6BC485}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3216,7 +3281,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>32987</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>181684</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1389529" cy="558102"/>
@@ -3225,7 +3290,7 @@
         <xdr:cNvPr id="37" name="正方形/長方形 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D208DEB7-4860-4825-9A26-7CC565F1011E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5671F651-2873-4E17-A8ED-AAF6ABA38032}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3305,7 +3370,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>30333</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>176033</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="960519" cy="328423"/>
@@ -3314,7 +3379,7 @@
         <xdr:cNvPr id="38" name="吹き出し: 四角形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA81B64-FF3F-4F64-8CE6-B9F8CE3E2EB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB35E56-B15C-42A8-920B-47DF9097A2A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3366,7 +3431,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>135380</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>34634</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2512226" cy="564514"/>
@@ -3375,7 +3440,7 @@
         <xdr:cNvPr id="39" name="吹き出し: 四角形 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DFB044-95B0-4F3B-AD59-A8E94F112D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{062C325C-C912-461A-ACAC-E24D630034E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3468,7 +3533,7 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>8092</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>138544</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2033505" cy="328423"/>
@@ -3477,7 +3542,7 @@
         <xdr:cNvPr id="40" name="吹き出し: 四角形 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DDD6444-62E2-4320-AE24-2B28CA7D83D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E24AE7-F4E4-485A-B1BC-EDCB3E37AC8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3542,7 +3607,7 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>144974</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>59219</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1806905" cy="564514"/>
@@ -3551,7 +3616,7 @@
         <xdr:cNvPr id="41" name="吹き出し: 四角形 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{932F1E5C-0A67-4CED-9C9C-27608AD8F9C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0322CF55-3793-49F5-95AB-C58929D34306}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3612,13 +3677,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>62561</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>66964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>32987</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>68190</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3626,7 +3691,7 @@
         <xdr:cNvPr id="42" name="コネクタ: カギ線 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08FD284F-EA29-46B1-B62C-C8A7AEAA6426}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F1A9F1-6397-47F0-BD4C-E6BE5C498CFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3668,13 +3733,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>138932</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>150968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>158172</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>113146</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3682,7 +3747,7 @@
         <xdr:cNvPr id="43" name="コネクタ: カギ線 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E683BC-7620-434D-8D95-6DAA0BDE97E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5532BBA-6EF4-4E54-92EB-72F1D13FA7D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3725,7 +3790,7 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>158173</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>146809</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1642062" cy="325217"/>
@@ -3734,7 +3799,7 @@
         <xdr:cNvPr id="44" name="正方形/長方形 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B85A22-91DC-4FDE-93F0-F39FD318443C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F018562-77B1-49E1-9957-18C3F94F5A8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3790,13 +3855,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>138932</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>150968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>181263</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>60172</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3804,7 +3869,7 @@
         <xdr:cNvPr id="45" name="コネクタ: カギ線 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B01F56D-2A1B-40DF-93F0-FC64D4243F49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94C2142-87B6-4E1C-9B91-BDA0C85A5F43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3847,7 +3912,7 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>181264</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>93835</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1642062" cy="325217"/>
@@ -3856,7 +3921,7 @@
         <xdr:cNvPr id="46" name="正方形/長方形 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC19DE15-CC87-49F7-8954-556139D11F50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A81A036-59F3-4351-8557-B997B7D96140}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3912,7 +3977,7 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>180584</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>39636</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1642062" cy="558102"/>
@@ -3921,7 +3986,7 @@
         <xdr:cNvPr id="47" name="正方形/長方形 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FDF59B2-C21B-44B9-BE73-A7B233489E43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB209236-4500-4239-954D-317AB3265EC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3991,7 +4056,7 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>181264</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>116927</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1642062" cy="325217"/>
@@ -4000,7 +4065,7 @@
         <xdr:cNvPr id="48" name="正方形/長方形 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD082DA-208E-44E4-A12F-C47AE3A6B2CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A22FC7-1314-490C-8258-92FEDCA768DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4061,7 +4126,7 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>181264</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>24565</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1642062" cy="325217"/>
@@ -4070,7 +4135,7 @@
         <xdr:cNvPr id="49" name="正方形/長方形 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D54C898-40BA-4425-B259-F565C5E7D3CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7324681F-014F-4C9C-B9B6-DF1BF8BEB09C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4131,13 +4196,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>138933</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>150967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>181264</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>83262</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4145,7 +4210,7 @@
         <xdr:cNvPr id="50" name="コネクタ: カギ線 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4561076-5886-4D74-95F0-0ED460FD351F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8905D0E4-9DBF-45BB-94E5-BCC3791144FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4188,13 +4253,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>138932</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>150968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>181263</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>187174</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4202,7 +4267,7 @@
         <xdr:cNvPr id="51" name="コネクタ: カギ線 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17995BD6-A137-4E82-B997-D4DE7FC5CA1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39AD6C3A-1BE2-47D7-9B68-647A5B9FB190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4245,13 +4310,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>48607</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>68190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>56192</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>122414</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4259,7 +4324,7 @@
         <xdr:cNvPr id="52" name="コネクタ: カギ線 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5763248E-BE74-4C2E-B08C-6F6618AD6D56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E29D7E1-9EDD-4ED7-9A22-214D41D73B55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4304,13 +4369,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>48607</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>68190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>56872</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>60172</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4318,7 +4383,7 @@
         <xdr:cNvPr id="53" name="コネクタ: カギ線 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11FE9E27-EA2F-4D8F-A287-5C5ECFE49E43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE45817-943D-4D5A-AA88-36C62C219CB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4363,13 +4428,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>48607</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>68190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>56872</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>83263</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4377,7 +4442,7 @@
         <xdr:cNvPr id="54" name="コネクタ: カギ線 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6DEB897-5530-48B6-9584-A370D12978B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C69388-0D53-44B8-8E52-B2489D336885}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4422,13 +4487,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>48607</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>68190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>56872</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>187174</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4436,7 +4501,7 @@
         <xdr:cNvPr id="55" name="コネクタ: カギ線 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B31D419-3E0E-47C4-B5BE-35D4BCB5434D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84416F8D-4373-464B-A8A5-3326FD26DB30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4481,13 +4546,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>48607</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>68190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>33781</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>113146</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4495,7 +4560,7 @@
         <xdr:cNvPr id="56" name="コネクタ: カギ線 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E6B839-7175-4F51-9656-220F996A42CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239B749A-552B-45D9-9131-C16E21B07EA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4540,13 +4605,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>194112</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>79481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>180583</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>122414</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4554,7 +4619,7 @@
         <xdr:cNvPr id="57" name="コネクタ: カギ線 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EBBA2C9-B362-4C10-A0A9-CDE3F02671AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047FF1F7-153B-42D6-AD43-EBD2A8BD9A05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4597,13 +4662,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>48607</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>68190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>71881</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>66162</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4611,7 +4676,7 @@
         <xdr:cNvPr id="58" name="コネクタ: カギ線 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01CB1D53-77CC-41E4-AE38-A1B5999A65E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{743EF41C-4F31-4905-AC2D-E02FFBC38532}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4656,13 +4721,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>48607</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>68190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>57860</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>93871</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4670,7 +4735,7 @@
         <xdr:cNvPr id="59" name="コネクタ: カギ線 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A3E357-7BD5-44D3-AAE4-BDC3D2681F63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12DDC232-038D-4A3E-A758-68F87DC23916}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4715,13 +4780,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>89775</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>121227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>8956</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4729,7 +4794,7 @@
         <xdr:cNvPr id="60" name="正方形/長方形 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6F5D02-915B-4C15-BC66-0599D126AA5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1006D14-B5E5-4C7C-9ED7-311423D91ABA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4781,13 +4846,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>182140</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>28864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>170595</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>11544</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4795,7 +4860,7 @@
         <xdr:cNvPr id="61" name="グループ化 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB5A534-C9EF-4D84-BA2B-D1F95F49C38E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2621627-1064-466D-9E55-2D5C37F2248D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4803,7 +4868,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="574685" y="12671137"/>
+          <a:off x="574685" y="12590319"/>
           <a:ext cx="3325092" cy="1356589"/>
           <a:chOff x="219363" y="3278910"/>
           <a:chExt cx="3325092" cy="1356590"/>
@@ -4814,7 +4879,7 @@
           <xdr:cNvPr id="62" name="四角形: メモ 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{244A39B0-5B0A-4184-83F8-65A38D69A746}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA840EF-0D24-4FCF-A993-D736B7C86E38}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4872,7 +4937,7 @@
           <xdr:cNvPr id="63" name="正方形/長方形 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF20111-7FF0-4D2D-B57A-1374141BC8C0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36258265-412D-4E03-BDCE-09F995994FC6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4925,7 +4990,7 @@
           <xdr:cNvPr id="64" name="正方形/長方形 63">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68D3C716-0DFF-42A0-9AE2-9E19F8B9C588}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6CE192-6F04-4D5C-A758-B36C191F5547}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4987,7 +5052,7 @@
     <xdr:from>
       <xdr:col>54</xdr:col>
       <xdr:colOff>193685</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>86590</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2456698" cy="1272784"/>
@@ -4996,7 +5061,7 @@
         <xdr:cNvPr id="65" name="吹き出し: 四角形 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC4C7DD-1BF1-496C-B8E4-F21669517EAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE186A63-C6A3-4EB6-B197-7D46C7B5F9F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5363,14 +5428,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4AA4A4-45EB-4262-A851-71FD5D1E5BB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571EFC3E-A301-4B0B-8424-20C34D9BE1FF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BU101"/>
+  <dimension ref="A1:BU99"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="AT4" sqref="AT4:BF5"/>
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
@@ -5378,7 +5443,7 @@
     <col min="1" max="16384" width="2.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="7" customHeight="1" thickBot="1">
+    <row r="1" spans="1:73" ht="15" customHeight="1" thickBot="1">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -5453,402 +5518,327 @@
     </row>
     <row r="2" spans="1:73" ht="15" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="54" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="35"/>
+      <c r="BG2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH2" s="27"/>
+      <c r="BI2" s="27"/>
+      <c r="BJ2" s="49"/>
+      <c r="BK2" s="50"/>
+      <c r="BL2" s="50"/>
+      <c r="BM2" s="50"/>
+      <c r="BN2" s="50"/>
+      <c r="BO2" s="50"/>
+      <c r="BP2" s="50"/>
+      <c r="BQ2" s="51"/>
+      <c r="BR2" s="52"/>
+      <c r="BS2" s="5"/>
+      <c r="BT2" s="53"/>
+      <c r="BU2" s="6"/>
+    </row>
+    <row r="3" spans="1:73" ht="15" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="25"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54"/>
+      <c r="BB3" s="54"/>
+      <c r="BC3" s="54"/>
+      <c r="BD3" s="54"/>
+      <c r="BE3" s="54"/>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH3" s="17"/>
+      <c r="BI3" s="17"/>
+      <c r="BJ3" s="55"/>
+      <c r="BK3" s="56"/>
+      <c r="BL3" s="56"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="56"/>
+      <c r="BO3" s="56"/>
+      <c r="BP3" s="56"/>
+      <c r="BQ3" s="57"/>
+      <c r="BR3" s="58"/>
+      <c r="BS3" s="59"/>
+      <c r="BT3" s="60"/>
+      <c r="BU3" s="6"/>
+    </row>
+    <row r="4" spans="1:73" ht="15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="50" t="s">
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="45"/>
+      <c r="AO4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="12"/>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="12"/>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="12"/>
-      <c r="BD2" s="12"/>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="13"/>
-      <c r="BG2" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH2" s="53"/>
-      <c r="BI2" s="53"/>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="60"/>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="BR2" s="9"/>
-      <c r="BS2" s="9"/>
-      <c r="BT2" s="10"/>
-      <c r="BU2" s="6"/>
-    </row>
-    <row r="3" spans="1:73" ht="15" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="15"/>
-      <c r="BD3" s="15"/>
-      <c r="BE3" s="15"/>
-      <c r="BF3" s="16"/>
-      <c r="BG3" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="57"/>
-      <c r="BK3" s="57"/>
-      <c r="BL3" s="57"/>
-      <c r="BM3" s="57"/>
-      <c r="BN3" s="57"/>
-      <c r="BO3" s="57"/>
-      <c r="BP3" s="57"/>
-      <c r="BQ3" s="33"/>
-      <c r="BR3" s="34"/>
-      <c r="BS3" s="34"/>
-      <c r="BT3" s="35"/>
-      <c r="BU3" s="6"/>
-    </row>
-    <row r="4" spans="1:73" ht="15" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="21"/>
-      <c r="AU4" s="22"/>
-      <c r="AV4" s="22"/>
-      <c r="AW4" s="22"/>
-      <c r="AX4" s="22"/>
-      <c r="AY4" s="22"/>
-      <c r="AZ4" s="22"/>
-      <c r="BA4" s="22"/>
-      <c r="BB4" s="22"/>
-      <c r="BC4" s="22"/>
-      <c r="BD4" s="22"/>
-      <c r="BE4" s="22"/>
-      <c r="BF4" s="23"/>
-      <c r="BG4" s="45" t="s">
+      <c r="AP4" s="37"/>
+      <c r="AQ4" s="37"/>
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="BH4" s="45"/>
-      <c r="BI4" s="45"/>
-      <c r="BJ4" s="57"/>
-      <c r="BK4" s="57"/>
-      <c r="BL4" s="57"/>
-      <c r="BM4" s="57"/>
-      <c r="BN4" s="57"/>
-      <c r="BO4" s="57"/>
-      <c r="BP4" s="57"/>
-      <c r="BQ4" s="33"/>
-      <c r="BR4" s="34"/>
-      <c r="BS4" s="34"/>
-      <c r="BT4" s="35"/>
+      <c r="BH4" s="17"/>
+      <c r="BI4" s="17"/>
+      <c r="BJ4" s="55"/>
+      <c r="BK4" s="56"/>
+      <c r="BL4" s="56"/>
+      <c r="BM4" s="56"/>
+      <c r="BN4" s="56"/>
+      <c r="BO4" s="56"/>
+      <c r="BP4" s="56"/>
+      <c r="BQ4" s="57"/>
+      <c r="BT4" s="4"/>
       <c r="BU4" s="6"/>
     </row>
     <row r="5" spans="1:73" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="20"/>
-      <c r="AT5" s="24"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="25"/>
-      <c r="AW5" s="25"/>
-      <c r="AX5" s="25"/>
-      <c r="AY5" s="25"/>
-      <c r="AZ5" s="25"/>
-      <c r="BA5" s="25"/>
-      <c r="BB5" s="25"/>
-      <c r="BC5" s="25"/>
-      <c r="BD5" s="25"/>
-      <c r="BE5" s="25"/>
-      <c r="BF5" s="26"/>
-      <c r="BG5" s="58" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="39"/>
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="16"/>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="16"/>
+      <c r="BC5" s="16"/>
+      <c r="BD5" s="16"/>
+      <c r="BE5" s="16"/>
+      <c r="BF5" s="44"/>
+      <c r="BG5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="BH5" s="58"/>
-      <c r="BI5" s="58"/>
-      <c r="BJ5" s="59"/>
-      <c r="BK5" s="59"/>
-      <c r="BL5" s="59"/>
-      <c r="BM5" s="59"/>
-      <c r="BN5" s="59"/>
-      <c r="BO5" s="59"/>
-      <c r="BP5" s="59"/>
-      <c r="BQ5" s="36"/>
-      <c r="BR5" s="37"/>
-      <c r="BS5" s="37"/>
-      <c r="BT5" s="38"/>
+      <c r="BH5" s="34"/>
+      <c r="BI5" s="34"/>
+      <c r="BJ5" s="61"/>
+      <c r="BK5" s="62"/>
+      <c r="BL5" s="62"/>
+      <c r="BM5" s="62"/>
+      <c r="BN5" s="62"/>
+      <c r="BO5" s="62"/>
+      <c r="BP5" s="62"/>
+      <c r="BQ5" s="63"/>
+      <c r="BR5" s="64"/>
+      <c r="BS5" s="64"/>
+      <c r="BT5" s="65"/>
       <c r="BU5" s="6"/>
     </row>
-    <row r="6" spans="1:73" ht="7" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2"/>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2"/>
-      <c r="AY6" s="2"/>
-      <c r="AZ6" s="2"/>
-      <c r="BA6" s="2"/>
-      <c r="BB6" s="2"/>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
-      <c r="BE6" s="2"/>
-      <c r="BF6" s="2"/>
-      <c r="BG6" s="2"/>
-      <c r="BH6" s="2"/>
-      <c r="BI6" s="2"/>
-      <c r="BJ6" s="2"/>
-      <c r="BK6" s="2"/>
-      <c r="BL6" s="2"/>
-      <c r="BM6" s="2"/>
-      <c r="BN6" s="2"/>
-      <c r="BO6" s="2"/>
-      <c r="BP6" s="2"/>
-      <c r="BQ6" s="2"/>
-      <c r="BR6" s="2"/>
-      <c r="BS6" s="2"/>
-      <c r="BT6" s="2"/>
-      <c r="BU6" s="7"/>
+    <row r="6" spans="1:73" ht="15.5" thickTop="1">
+      <c r="A6" s="4"/>
+      <c r="BU6" s="6"/>
     </row>
     <row r="7" spans="1:73">
       <c r="A7" s="4"/>
@@ -6026,161 +6016,90 @@
       <c r="A50" s="4"/>
       <c r="BU50" s="6"/>
     </row>
-    <row r="51" spans="1:73">
+    <row r="51" spans="1:73" ht="15.5" thickBot="1">
       <c r="A51" s="4"/>
       <c r="BU51" s="6"/>
     </row>
-    <row r="52" spans="1:73" ht="15.5" thickBot="1">
-      <c r="A52" s="4"/>
-      <c r="BU52" s="6"/>
+    <row r="52" spans="1:73">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="5"/>
+      <c r="AQ52" s="5"/>
+      <c r="AR52" s="5"/>
+      <c r="AS52" s="5"/>
+      <c r="AT52" s="5"/>
+      <c r="AU52" s="5"/>
+      <c r="AV52" s="5"/>
+      <c r="AW52" s="5"/>
+      <c r="AX52" s="5"/>
+      <c r="AY52" s="5"/>
+      <c r="AZ52" s="5"/>
+      <c r="BA52" s="5"/>
+      <c r="BB52" s="5"/>
+      <c r="BC52" s="5"/>
+      <c r="BD52" s="5"/>
+      <c r="BE52" s="5"/>
+      <c r="BF52" s="5"/>
+      <c r="BG52" s="5"/>
+      <c r="BH52" s="5"/>
+      <c r="BI52" s="5"/>
+      <c r="BJ52" s="5"/>
+      <c r="BK52" s="5"/>
+      <c r="BL52" s="5"/>
+      <c r="BM52" s="5"/>
+      <c r="BN52" s="5"/>
+      <c r="BO52" s="5"/>
+      <c r="BP52" s="5"/>
+      <c r="BQ52" s="5"/>
+      <c r="BR52" s="5"/>
+      <c r="BS52" s="5"/>
+      <c r="BT52" s="5"/>
     </row>
     <row r="53" spans="1:73">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="5"/>
-      <c r="AH53" s="5"/>
-      <c r="AI53" s="5"/>
-      <c r="AJ53" s="5"/>
-      <c r="AK53" s="5"/>
-      <c r="AL53" s="5"/>
-      <c r="AM53" s="5"/>
-      <c r="AN53" s="5"/>
-      <c r="AO53" s="5"/>
-      <c r="AP53" s="5"/>
-      <c r="AQ53" s="5"/>
-      <c r="AR53" s="5"/>
-      <c r="AS53" s="5"/>
-      <c r="AT53" s="5"/>
-      <c r="AU53" s="5"/>
-      <c r="AV53" s="5"/>
-      <c r="AW53" s="5"/>
-      <c r="AX53" s="5"/>
-      <c r="AY53" s="5"/>
-      <c r="AZ53" s="5"/>
-      <c r="BA53" s="5"/>
-      <c r="BB53" s="5"/>
-      <c r="BC53" s="5"/>
-      <c r="BD53" s="5"/>
-      <c r="BE53" s="5"/>
-      <c r="BF53" s="5"/>
-      <c r="BG53" s="5"/>
-      <c r="BH53" s="5"/>
-      <c r="BI53" s="5"/>
-      <c r="BJ53" s="5"/>
-      <c r="BK53" s="5"/>
-      <c r="BL53" s="5"/>
-      <c r="BM53" s="5"/>
-      <c r="BN53" s="5"/>
-      <c r="BO53" s="5"/>
-      <c r="BP53" s="5"/>
-      <c r="BQ53" s="5"/>
-      <c r="BR53" s="5"/>
-      <c r="BS53" s="5"/>
-      <c r="BT53" s="5"/>
-    </row>
-    <row r="54" spans="1:73" ht="7" customHeight="1" thickBot="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
-      <c r="AD54" s="2"/>
-      <c r="AE54" s="2"/>
-      <c r="AF54" s="2"/>
-      <c r="AG54" s="2"/>
-      <c r="AH54" s="2"/>
-      <c r="AI54" s="2"/>
-      <c r="AJ54" s="2"/>
-      <c r="AK54" s="2"/>
-      <c r="AL54" s="2"/>
-      <c r="AM54" s="2"/>
-      <c r="AN54" s="2"/>
-      <c r="AO54" s="2"/>
-      <c r="AP54" s="2"/>
-      <c r="AQ54" s="2"/>
-      <c r="AR54" s="2"/>
-      <c r="AS54" s="2"/>
-      <c r="AT54" s="2"/>
-      <c r="AU54" s="2"/>
-      <c r="AV54" s="2"/>
-      <c r="AW54" s="2"/>
-      <c r="AX54" s="2"/>
-      <c r="AY54" s="2"/>
-      <c r="AZ54" s="2"/>
-      <c r="BA54" s="2"/>
-      <c r="BB54" s="2"/>
-      <c r="BC54" s="2"/>
-      <c r="BD54" s="2"/>
-      <c r="BE54" s="2"/>
-      <c r="BF54" s="2"/>
-      <c r="BG54" s="2"/>
-      <c r="BH54" s="2"/>
-      <c r="BI54" s="2"/>
-      <c r="BJ54" s="2"/>
-      <c r="BK54" s="2"/>
-      <c r="BL54" s="2"/>
-      <c r="BM54" s="2"/>
-      <c r="BN54" s="2"/>
-      <c r="BO54" s="2"/>
-      <c r="BP54" s="2"/>
-      <c r="BQ54" s="2"/>
-      <c r="BR54" s="2"/>
-      <c r="BS54" s="2"/>
-      <c r="BT54" s="2"/>
-      <c r="BU54" s="7"/>
+      <c r="A53" s="4"/>
+      <c r="BU53" s="6"/>
+    </row>
+    <row r="54" spans="1:73">
+      <c r="A54" s="4"/>
+      <c r="BU54" s="6"/>
     </row>
     <row r="55" spans="1:73">
       <c r="A55" s="4"/>
@@ -6192,6 +6111,7 @@
     </row>
     <row r="57" spans="1:73">
       <c r="A57" s="4"/>
+      <c r="M57" s="66"/>
       <c r="BU57" s="6"/>
     </row>
     <row r="58" spans="1:73">
@@ -6354,132 +6274,123 @@
       <c r="A97" s="4"/>
       <c r="BU97" s="6"/>
     </row>
-    <row r="98" spans="1:73">
+    <row r="98" spans="1:73" ht="15.5" thickBot="1">
       <c r="A98" s="4"/>
       <c r="BU98" s="6"/>
     </row>
     <row r="99" spans="1:73">
-      <c r="A99" s="4"/>
-      <c r="BU99" s="6"/>
-    </row>
-    <row r="100" spans="1:73" ht="15.5" thickBot="1">
-      <c r="A100" s="4"/>
-      <c r="BU100" s="6"/>
-    </row>
-    <row r="101" spans="1:73">
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-      <c r="U101" s="5"/>
-      <c r="V101" s="5"/>
-      <c r="W101" s="5"/>
-      <c r="X101" s="5"/>
-      <c r="Y101" s="5"/>
-      <c r="Z101" s="5"/>
-      <c r="AA101" s="5"/>
-      <c r="AB101" s="5"/>
-      <c r="AC101" s="5"/>
-      <c r="AD101" s="5"/>
-      <c r="AE101" s="5"/>
-      <c r="AF101" s="5"/>
-      <c r="AG101" s="5"/>
-      <c r="AH101" s="5"/>
-      <c r="AI101" s="5"/>
-      <c r="AJ101" s="5"/>
-      <c r="AK101" s="5"/>
-      <c r="AL101" s="5"/>
-      <c r="AM101" s="5"/>
-      <c r="AN101" s="5"/>
-      <c r="AO101" s="5"/>
-      <c r="AP101" s="5"/>
-      <c r="AQ101" s="5"/>
-      <c r="AR101" s="5"/>
-      <c r="AS101" s="5"/>
-      <c r="AT101" s="5"/>
-      <c r="AU101" s="5"/>
-      <c r="AV101" s="5"/>
-      <c r="AW101" s="5"/>
-      <c r="AX101" s="5"/>
-      <c r="AY101" s="5"/>
-      <c r="AZ101" s="5"/>
-      <c r="BA101" s="5"/>
-      <c r="BB101" s="5"/>
-      <c r="BC101" s="5"/>
-      <c r="BD101" s="5"/>
-      <c r="BE101" s="5"/>
-      <c r="BF101" s="5"/>
-      <c r="BG101" s="5"/>
-      <c r="BH101" s="5"/>
-      <c r="BI101" s="5"/>
-      <c r="BJ101" s="5"/>
-      <c r="BK101" s="5"/>
-      <c r="BL101" s="5"/>
-      <c r="BM101" s="5"/>
-      <c r="BN101" s="5"/>
-      <c r="BO101" s="5"/>
-      <c r="BP101" s="5"/>
-      <c r="BQ101" s="5"/>
-      <c r="BR101" s="5"/>
-      <c r="BS101" s="5"/>
-      <c r="BT101" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="5"/>
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
+      <c r="AA99" s="5"/>
+      <c r="AB99" s="5"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="5"/>
+      <c r="AE99" s="5"/>
+      <c r="AF99" s="5"/>
+      <c r="AG99" s="5"/>
+      <c r="AH99" s="5"/>
+      <c r="AI99" s="5"/>
+      <c r="AJ99" s="5"/>
+      <c r="AK99" s="5"/>
+      <c r="AL99" s="5"/>
+      <c r="AM99" s="5"/>
+      <c r="AN99" s="5"/>
+      <c r="AO99" s="5"/>
+      <c r="AP99" s="5"/>
+      <c r="AQ99" s="5"/>
+      <c r="AR99" s="5"/>
+      <c r="AS99" s="5"/>
+      <c r="AT99" s="5"/>
+      <c r="AU99" s="5"/>
+      <c r="AV99" s="5"/>
+      <c r="AW99" s="5"/>
+      <c r="AX99" s="5"/>
+      <c r="AY99" s="5"/>
+      <c r="AZ99" s="5"/>
+      <c r="BA99" s="5"/>
+      <c r="BB99" s="5"/>
+      <c r="BC99" s="5"/>
+      <c r="BD99" s="5"/>
+      <c r="BE99" s="5"/>
+      <c r="BF99" s="5"/>
+      <c r="BG99" s="5"/>
+      <c r="BH99" s="5"/>
+      <c r="BI99" s="5"/>
+      <c r="BJ99" s="5"/>
+      <c r="BK99" s="5"/>
+      <c r="BL99" s="5"/>
+      <c r="BM99" s="5"/>
+      <c r="BN99" s="5"/>
+      <c r="BO99" s="5"/>
+      <c r="BP99" s="5"/>
+      <c r="BQ99" s="5"/>
+      <c r="BR99" s="5"/>
+      <c r="BS99" s="5"/>
+      <c r="BT99" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
+    <mergeCell ref="BJ4:BQ4"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BJ5:BQ5"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
     <mergeCell ref="B4:F5"/>
     <mergeCell ref="G4:V5"/>
+    <mergeCell ref="W4:AN5"/>
+    <mergeCell ref="AO4:AS5"/>
+    <mergeCell ref="AT4:BF5"/>
     <mergeCell ref="BG4:BI4"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="G2:V3"/>
-    <mergeCell ref="AO2:AS3"/>
-    <mergeCell ref="BG2:BI2"/>
     <mergeCell ref="W2:AA3"/>
     <mergeCell ref="AB2:AN3"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="AO2:AS3"/>
     <mergeCell ref="AT2:BF3"/>
-    <mergeCell ref="AO4:AS5"/>
-    <mergeCell ref="AT4:BF5"/>
-    <mergeCell ref="W4:AN5"/>
-    <mergeCell ref="BQ3:BT5"/>
-    <mergeCell ref="BJ4:BP4"/>
-    <mergeCell ref="BJ5:BP5"/>
-    <mergeCell ref="BJ2:BP2"/>
-    <mergeCell ref="BJ3:BP3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.70866141732283472" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;R&amp;14P.&amp;P/&amp;N　　　</oddHeader>
+    <oddHeader>&amp;R&amp;12P.&amp;P/&amp;N　　　</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6ACC12-9A6A-4F5C-A395-FEED61931BE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3690868-F43A-4137-BBD2-23850DE3F7BE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BU101"/>
+  <dimension ref="A1:BU99"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:BT100"/>
+      <selection activeCell="BB7" sqref="BB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
@@ -6487,7 +6398,7 @@
     <col min="1" max="16384" width="2.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="7" customHeight="1" thickBot="1">
+    <row r="1" spans="1:73" ht="15" customHeight="1" thickBot="1">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -6562,415 +6473,340 @@
     </row>
     <row r="2" spans="1:73" ht="15" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="54" t="s">
-        <v>10</v>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="28" t="s">
+        <v>9</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="50" t="s">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="35"/>
+      <c r="BG2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH2" s="27"/>
+      <c r="BI2" s="27"/>
+      <c r="BJ2" s="49"/>
+      <c r="BK2" s="50"/>
+      <c r="BL2" s="50"/>
+      <c r="BM2" s="50"/>
+      <c r="BN2" s="50"/>
+      <c r="BO2" s="50"/>
+      <c r="BP2" s="50"/>
+      <c r="BQ2" s="51"/>
+      <c r="BR2" s="52"/>
+      <c r="BS2" s="5"/>
+      <c r="BT2" s="53"/>
+      <c r="BU2" s="6"/>
+    </row>
+    <row r="3" spans="1:73" ht="15" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="25"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54"/>
+      <c r="BB3" s="54"/>
+      <c r="BC3" s="54"/>
+      <c r="BD3" s="54"/>
+      <c r="BE3" s="54"/>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH3" s="17"/>
+      <c r="BI3" s="17"/>
+      <c r="BJ3" s="55"/>
+      <c r="BK3" s="56"/>
+      <c r="BL3" s="56"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="56"/>
+      <c r="BO3" s="56"/>
+      <c r="BP3" s="56"/>
+      <c r="BQ3" s="57"/>
+      <c r="BR3" s="58"/>
+      <c r="BS3" s="59"/>
+      <c r="BT3" s="60"/>
+      <c r="BU3" s="6"/>
+    </row>
+    <row r="4" spans="1:73" ht="15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="45"/>
+      <c r="AO4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="12"/>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="12"/>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="12"/>
-      <c r="BD2" s="12"/>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="13"/>
-      <c r="BG2" s="53" t="s">
-        <v>2</v>
+      <c r="AP4" s="37"/>
+      <c r="AQ4" s="37"/>
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="17" t="s">
+        <v>4</v>
       </c>
-      <c r="BH2" s="53"/>
-      <c r="BI2" s="53"/>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="60"/>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="8" t="s">
-        <v>6</v>
+      <c r="BH4" s="17"/>
+      <c r="BI4" s="17"/>
+      <c r="BJ4" s="55"/>
+      <c r="BK4" s="56"/>
+      <c r="BL4" s="56"/>
+      <c r="BM4" s="56"/>
+      <c r="BN4" s="56"/>
+      <c r="BO4" s="56"/>
+      <c r="BP4" s="56"/>
+      <c r="BQ4" s="57"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="6"/>
+    </row>
+    <row r="5" spans="1:73" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="39"/>
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="16"/>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="16"/>
+      <c r="BC5" s="16"/>
+      <c r="BD5" s="16"/>
+      <c r="BE5" s="16"/>
+      <c r="BF5" s="44"/>
+      <c r="BG5" s="34" t="s">
+        <v>5</v>
       </c>
-      <c r="BR2" s="9"/>
-      <c r="BS2" s="9"/>
-      <c r="BT2" s="10"/>
-      <c r="BU2" s="6"/>
-    </row>
-    <row r="3" spans="1:73" ht="15" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="15"/>
-      <c r="BD3" s="15"/>
-      <c r="BE3" s="15"/>
-      <c r="BF3" s="16"/>
-      <c r="BG3" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="57"/>
-      <c r="BK3" s="57"/>
-      <c r="BL3" s="57"/>
-      <c r="BM3" s="57"/>
-      <c r="BN3" s="57"/>
-      <c r="BO3" s="57"/>
-      <c r="BP3" s="57"/>
-      <c r="BQ3" s="33"/>
-      <c r="BR3" s="34"/>
-      <c r="BS3" s="34"/>
-      <c r="BT3" s="35"/>
-      <c r="BU3" s="6"/>
-    </row>
-    <row r="4" spans="1:73" ht="15" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="27" t="s">
+      <c r="BH5" s="34"/>
+      <c r="BI5" s="34"/>
+      <c r="BJ5" s="61"/>
+      <c r="BK5" s="62"/>
+      <c r="BL5" s="62"/>
+      <c r="BM5" s="62"/>
+      <c r="BN5" s="62"/>
+      <c r="BO5" s="62"/>
+      <c r="BP5" s="62"/>
+      <c r="BQ5" s="63"/>
+      <c r="BR5" s="64"/>
+      <c r="BS5" s="64"/>
+      <c r="BT5" s="65"/>
+      <c r="BU5" s="6"/>
+    </row>
+    <row r="6" spans="1:73" ht="15.5" thickTop="1">
+      <c r="A6" s="4"/>
+      <c r="BU6" s="6"/>
+    </row>
+    <row r="7" spans="1:73">
+      <c r="A7" s="4"/>
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="17" t="s">
-        <v>8</v>
+      <c r="H7" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="21"/>
-      <c r="AU4" s="22"/>
-      <c r="AV4" s="22"/>
-      <c r="AW4" s="22"/>
-      <c r="AX4" s="22"/>
-      <c r="AY4" s="22"/>
-      <c r="AZ4" s="22"/>
-      <c r="BA4" s="22"/>
-      <c r="BB4" s="22"/>
-      <c r="BC4" s="22"/>
-      <c r="BD4" s="22"/>
-      <c r="BE4" s="22"/>
-      <c r="BF4" s="23"/>
-      <c r="BG4" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="BH4" s="45"/>
-      <c r="BI4" s="45"/>
-      <c r="BJ4" s="57"/>
-      <c r="BK4" s="57"/>
-      <c r="BL4" s="57"/>
-      <c r="BM4" s="57"/>
-      <c r="BN4" s="57"/>
-      <c r="BO4" s="57"/>
-      <c r="BP4" s="57"/>
-      <c r="BQ4" s="33"/>
-      <c r="BR4" s="34"/>
-      <c r="BS4" s="34"/>
-      <c r="BT4" s="35"/>
-      <c r="BU4" s="6"/>
-    </row>
-    <row r="5" spans="1:73" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="20"/>
-      <c r="AT5" s="24"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="25"/>
-      <c r="AW5" s="25"/>
-      <c r="AX5" s="25"/>
-      <c r="AY5" s="25"/>
-      <c r="AZ5" s="25"/>
-      <c r="BA5" s="25"/>
-      <c r="BB5" s="25"/>
-      <c r="BC5" s="25"/>
-      <c r="BD5" s="25"/>
-      <c r="BE5" s="25"/>
-      <c r="BF5" s="26"/>
-      <c r="BG5" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="BH5" s="58"/>
-      <c r="BI5" s="58"/>
-      <c r="BJ5" s="59"/>
-      <c r="BK5" s="59"/>
-      <c r="BL5" s="59"/>
-      <c r="BM5" s="59"/>
-      <c r="BN5" s="59"/>
-      <c r="BO5" s="59"/>
-      <c r="BP5" s="59"/>
-      <c r="BQ5" s="36"/>
-      <c r="BR5" s="37"/>
-      <c r="BS5" s="37"/>
-      <c r="BT5" s="38"/>
-      <c r="BU5" s="6"/>
-    </row>
-    <row r="6" spans="1:73" ht="7" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2"/>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2"/>
-      <c r="AY6" s="2"/>
-      <c r="AZ6" s="2"/>
-      <c r="BA6" s="2"/>
-      <c r="BB6" s="2"/>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
-      <c r="BE6" s="2"/>
-      <c r="BF6" s="2"/>
-      <c r="BG6" s="2"/>
-      <c r="BH6" s="2"/>
-      <c r="BI6" s="2"/>
-      <c r="BJ6" s="2"/>
-      <c r="BK6" s="2"/>
-      <c r="BL6" s="2"/>
-      <c r="BM6" s="2"/>
-      <c r="BN6" s="2"/>
-      <c r="BO6" s="2"/>
-      <c r="BP6" s="2"/>
-      <c r="BQ6" s="2"/>
-      <c r="BR6" s="2"/>
-      <c r="BS6" s="2"/>
-      <c r="BT6" s="2"/>
-      <c r="BU6" s="7"/>
-    </row>
-    <row r="7" spans="1:73">
-      <c r="A7" s="4"/>
       <c r="BU7" s="6"/>
     </row>
     <row r="8" spans="1:73">
       <c r="A8" s="4"/>
-      <c r="C8" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>15</v>
-      </c>
       <c r="BU8" s="6"/>
     </row>
     <row r="9" spans="1:73">
@@ -7141,161 +6977,96 @@
       <c r="A50" s="4"/>
       <c r="BU50" s="6"/>
     </row>
-    <row r="51" spans="1:73">
+    <row r="51" spans="1:73" ht="15.5" thickBot="1">
       <c r="A51" s="4"/>
       <c r="BU51" s="6"/>
     </row>
-    <row r="52" spans="1:73" ht="15.5" thickBot="1">
-      <c r="A52" s="4"/>
-      <c r="BU52" s="6"/>
+    <row r="52" spans="1:73">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="5"/>
+      <c r="AQ52" s="5"/>
+      <c r="AR52" s="5"/>
+      <c r="AS52" s="5"/>
+      <c r="AT52" s="5"/>
+      <c r="AU52" s="5"/>
+      <c r="AV52" s="5"/>
+      <c r="AW52" s="5"/>
+      <c r="AX52" s="5"/>
+      <c r="AY52" s="5"/>
+      <c r="AZ52" s="5"/>
+      <c r="BA52" s="5"/>
+      <c r="BB52" s="5"/>
+      <c r="BC52" s="5"/>
+      <c r="BD52" s="5"/>
+      <c r="BE52" s="5"/>
+      <c r="BF52" s="5"/>
+      <c r="BG52" s="5"/>
+      <c r="BH52" s="5"/>
+      <c r="BI52" s="5"/>
+      <c r="BJ52" s="5"/>
+      <c r="BK52" s="5"/>
+      <c r="BL52" s="5"/>
+      <c r="BM52" s="5"/>
+      <c r="BN52" s="5"/>
+      <c r="BO52" s="5"/>
+      <c r="BP52" s="5"/>
+      <c r="BQ52" s="5"/>
+      <c r="BR52" s="5"/>
+      <c r="BS52" s="5"/>
+      <c r="BT52" s="5"/>
     </row>
     <row r="53" spans="1:73">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="5"/>
-      <c r="AH53" s="5"/>
-      <c r="AI53" s="5"/>
-      <c r="AJ53" s="5"/>
-      <c r="AK53" s="5"/>
-      <c r="AL53" s="5"/>
-      <c r="AM53" s="5"/>
-      <c r="AN53" s="5"/>
-      <c r="AO53" s="5"/>
-      <c r="AP53" s="5"/>
-      <c r="AQ53" s="5"/>
-      <c r="AR53" s="5"/>
-      <c r="AS53" s="5"/>
-      <c r="AT53" s="5"/>
-      <c r="AU53" s="5"/>
-      <c r="AV53" s="5"/>
-      <c r="AW53" s="5"/>
-      <c r="AX53" s="5"/>
-      <c r="AY53" s="5"/>
-      <c r="AZ53" s="5"/>
-      <c r="BA53" s="5"/>
-      <c r="BB53" s="5"/>
-      <c r="BC53" s="5"/>
-      <c r="BD53" s="5"/>
-      <c r="BE53" s="5"/>
-      <c r="BF53" s="5"/>
-      <c r="BG53" s="5"/>
-      <c r="BH53" s="5"/>
-      <c r="BI53" s="5"/>
-      <c r="BJ53" s="5"/>
-      <c r="BK53" s="5"/>
-      <c r="BL53" s="5"/>
-      <c r="BM53" s="5"/>
-      <c r="BN53" s="5"/>
-      <c r="BO53" s="5"/>
-      <c r="BP53" s="5"/>
-      <c r="BQ53" s="5"/>
-      <c r="BR53" s="5"/>
-      <c r="BS53" s="5"/>
-      <c r="BT53" s="5"/>
-    </row>
-    <row r="54" spans="1:73" ht="7" customHeight="1" thickBot="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
-      <c r="AD54" s="2"/>
-      <c r="AE54" s="2"/>
-      <c r="AF54" s="2"/>
-      <c r="AG54" s="2"/>
-      <c r="AH54" s="2"/>
-      <c r="AI54" s="2"/>
-      <c r="AJ54" s="2"/>
-      <c r="AK54" s="2"/>
-      <c r="AL54" s="2"/>
-      <c r="AM54" s="2"/>
-      <c r="AN54" s="2"/>
-      <c r="AO54" s="2"/>
-      <c r="AP54" s="2"/>
-      <c r="AQ54" s="2"/>
-      <c r="AR54" s="2"/>
-      <c r="AS54" s="2"/>
-      <c r="AT54" s="2"/>
-      <c r="AU54" s="2"/>
-      <c r="AV54" s="2"/>
-      <c r="AW54" s="2"/>
-      <c r="AX54" s="2"/>
-      <c r="AY54" s="2"/>
-      <c r="AZ54" s="2"/>
-      <c r="BA54" s="2"/>
-      <c r="BB54" s="2"/>
-      <c r="BC54" s="2"/>
-      <c r="BD54" s="2"/>
-      <c r="BE54" s="2"/>
-      <c r="BF54" s="2"/>
-      <c r="BG54" s="2"/>
-      <c r="BH54" s="2"/>
-      <c r="BI54" s="2"/>
-      <c r="BJ54" s="2"/>
-      <c r="BK54" s="2"/>
-      <c r="BL54" s="2"/>
-      <c r="BM54" s="2"/>
-      <c r="BN54" s="2"/>
-      <c r="BO54" s="2"/>
-      <c r="BP54" s="2"/>
-      <c r="BQ54" s="2"/>
-      <c r="BR54" s="2"/>
-      <c r="BS54" s="2"/>
-      <c r="BT54" s="2"/>
-      <c r="BU54" s="7"/>
+      <c r="A53" s="4"/>
+      <c r="BU53" s="6"/>
+    </row>
+    <row r="54" spans="1:73">
+      <c r="A54" s="4"/>
+      <c r="C54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BU54" s="6"/>
     </row>
     <row r="55" spans="1:73">
       <c r="A55" s="4"/>
@@ -7303,12 +7074,6 @@
     </row>
     <row r="56" spans="1:73">
       <c r="A56" s="4"/>
-      <c r="C56" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="62" t="s">
-        <v>16</v>
-      </c>
       <c r="BU56" s="6"/>
     </row>
     <row r="57" spans="1:73">
@@ -7475,107 +7240,98 @@
       <c r="A97" s="4"/>
       <c r="BU97" s="6"/>
     </row>
-    <row r="98" spans="1:73">
+    <row r="98" spans="1:73" ht="15.5" thickBot="1">
       <c r="A98" s="4"/>
       <c r="BU98" s="6"/>
     </row>
     <row r="99" spans="1:73">
-      <c r="A99" s="4"/>
-      <c r="BU99" s="6"/>
-    </row>
-    <row r="100" spans="1:73" ht="15.5" thickBot="1">
-      <c r="A100" s="4"/>
-      <c r="BU100" s="6"/>
-    </row>
-    <row r="101" spans="1:73">
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-      <c r="U101" s="5"/>
-      <c r="V101" s="5"/>
-      <c r="W101" s="5"/>
-      <c r="X101" s="5"/>
-      <c r="Y101" s="5"/>
-      <c r="Z101" s="5"/>
-      <c r="AA101" s="5"/>
-      <c r="AB101" s="5"/>
-      <c r="AC101" s="5"/>
-      <c r="AD101" s="5"/>
-      <c r="AE101" s="5"/>
-      <c r="AF101" s="5"/>
-      <c r="AG101" s="5"/>
-      <c r="AH101" s="5"/>
-      <c r="AI101" s="5"/>
-      <c r="AJ101" s="5"/>
-      <c r="AK101" s="5"/>
-      <c r="AL101" s="5"/>
-      <c r="AM101" s="5"/>
-      <c r="AN101" s="5"/>
-      <c r="AO101" s="5"/>
-      <c r="AP101" s="5"/>
-      <c r="AQ101" s="5"/>
-      <c r="AR101" s="5"/>
-      <c r="AS101" s="5"/>
-      <c r="AT101" s="5"/>
-      <c r="AU101" s="5"/>
-      <c r="AV101" s="5"/>
-      <c r="AW101" s="5"/>
-      <c r="AX101" s="5"/>
-      <c r="AY101" s="5"/>
-      <c r="AZ101" s="5"/>
-      <c r="BA101" s="5"/>
-      <c r="BB101" s="5"/>
-      <c r="BC101" s="5"/>
-      <c r="BD101" s="5"/>
-      <c r="BE101" s="5"/>
-      <c r="BF101" s="5"/>
-      <c r="BG101" s="5"/>
-      <c r="BH101" s="5"/>
-      <c r="BI101" s="5"/>
-      <c r="BJ101" s="5"/>
-      <c r="BK101" s="5"/>
-      <c r="BL101" s="5"/>
-      <c r="BM101" s="5"/>
-      <c r="BN101" s="5"/>
-      <c r="BO101" s="5"/>
-      <c r="BP101" s="5"/>
-      <c r="BQ101" s="5"/>
-      <c r="BR101" s="5"/>
-      <c r="BS101" s="5"/>
-      <c r="BT101" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="5"/>
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
+      <c r="AA99" s="5"/>
+      <c r="AB99" s="5"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="5"/>
+      <c r="AE99" s="5"/>
+      <c r="AF99" s="5"/>
+      <c r="AG99" s="5"/>
+      <c r="AH99" s="5"/>
+      <c r="AI99" s="5"/>
+      <c r="AJ99" s="5"/>
+      <c r="AK99" s="5"/>
+      <c r="AL99" s="5"/>
+      <c r="AM99" s="5"/>
+      <c r="AN99" s="5"/>
+      <c r="AO99" s="5"/>
+      <c r="AP99" s="5"/>
+      <c r="AQ99" s="5"/>
+      <c r="AR99" s="5"/>
+      <c r="AS99" s="5"/>
+      <c r="AT99" s="5"/>
+      <c r="AU99" s="5"/>
+      <c r="AV99" s="5"/>
+      <c r="AW99" s="5"/>
+      <c r="AX99" s="5"/>
+      <c r="AY99" s="5"/>
+      <c r="AZ99" s="5"/>
+      <c r="BA99" s="5"/>
+      <c r="BB99" s="5"/>
+      <c r="BC99" s="5"/>
+      <c r="BD99" s="5"/>
+      <c r="BE99" s="5"/>
+      <c r="BF99" s="5"/>
+      <c r="BG99" s="5"/>
+      <c r="BH99" s="5"/>
+      <c r="BI99" s="5"/>
+      <c r="BJ99" s="5"/>
+      <c r="BK99" s="5"/>
+      <c r="BL99" s="5"/>
+      <c r="BM99" s="5"/>
+      <c r="BN99" s="5"/>
+      <c r="BO99" s="5"/>
+      <c r="BP99" s="5"/>
+      <c r="BQ99" s="5"/>
+      <c r="BR99" s="5"/>
+      <c r="BS99" s="5"/>
+      <c r="BT99" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="BG4:BI4"/>
-    <mergeCell ref="BJ4:BP4"/>
+  <mergeCells count="19">
+    <mergeCell ref="BJ4:BQ4"/>
     <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BJ5:BP5"/>
+    <mergeCell ref="BJ5:BQ5"/>
     <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BJ2:BP2"/>
+    <mergeCell ref="BJ2:BQ2"/>
     <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="BJ3:BP3"/>
-    <mergeCell ref="BQ3:BT5"/>
+    <mergeCell ref="BJ3:BQ3"/>
     <mergeCell ref="B4:F5"/>
     <mergeCell ref="G4:V5"/>
     <mergeCell ref="W4:AN5"/>
     <mergeCell ref="AO4:AS5"/>
     <mergeCell ref="AT4:BF5"/>
+    <mergeCell ref="BG4:BI4"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="G2:V3"/>
     <mergeCell ref="W2:AA3"/>
@@ -7584,10 +7340,10 @@
     <mergeCell ref="AT2:BF3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.70866141732283472" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;R&amp;14P.&amp;P/&amp;N　　　</oddHeader>
+    <oddHeader>&amp;R&amp;12P.&amp;P/&amp;N　　　</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
